--- a/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>KNSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,80 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,8 +781,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,8 +831,14 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,8 +881,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,52 +905,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>22900</v>
+      </c>
+      <c r="F12" s="3">
         <v>22000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>30800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>59300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>36100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>20600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>17200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>12600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>56400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>14000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>9300</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +1001,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1051,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1101,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,52 +1122,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>32600</v>
+      </c>
+      <c r="F17" s="3">
         <v>30400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>39300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>67600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>44100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>26200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>21500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>16300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>65400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>16200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>11400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1124,43 +1183,49 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-39300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-67600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-44100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-26200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-21500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-16300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-65400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-16200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-11400</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1242,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,43 +1253,49 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="F20" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="G20" s="3">
         <v>1700</v>
       </c>
       <c r="H20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1230,43 +1303,49 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-37100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-65400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-42200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-24500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-20400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-16000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-64800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-16100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-11200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,96 +1388,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-29100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-37600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-65800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-42400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-24500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-20500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-16000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-64900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-16100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-11200</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-200</v>
       </c>
       <c r="J24" s="3">
         <v>-100</v>
       </c>
       <c r="K24" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L24" s="3">
         <v>-100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-27100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-37200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-65800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-42600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-24400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-20300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-64800</v>
       </c>
       <c r="L26" s="3">
         <v>-16000</v>
       </c>
       <c r="M26" s="3">
+        <v>-64800</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="O26" s="3">
         <v>-11200</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-27100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-37200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-65800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-42600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-24400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-20300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-64800</v>
       </c>
       <c r="L27" s="3">
         <v>-16000</v>
       </c>
       <c r="M27" s="3">
+        <v>-64800</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="O27" s="3">
         <v>-11200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1688,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1599,15 +1720,15 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1617,8 +1738,14 @@
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1838,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1714,87 +1853,99 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-1700</v>
+        <v>-1100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1800</v>
+        <v>-1400</v>
       </c>
       <c r="G32" s="3">
         <v>-1700</v>
       </c>
       <c r="H32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-27100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-37200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-65800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-42600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-24400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-20300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-64900</v>
       </c>
       <c r="L33" s="3">
         <v>-16000</v>
       </c>
       <c r="M33" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="O33" s="3">
         <v>-11200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-27100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-37200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-65800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-42600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-24400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-20300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-64900</v>
       </c>
       <c r="L35" s="3">
         <v>-16000</v>
       </c>
       <c r="M35" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="O35" s="3">
         <v>-11200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,38 +2137,40 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>106300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>46900</v>
+      </c>
+      <c r="F41" s="3">
         <v>68800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>82800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>82600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>72000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>69700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>285500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>221100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,35 +2183,41 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>97900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>186500</v>
+      </c>
+      <c r="F42" s="3">
         <v>189900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>204600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>243900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>235300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>268200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>73700</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2054,8 +2233,14 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2098,8 +2283,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,38 +2333,44 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F45" s="3">
         <v>9600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>9000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>8400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,38 +2383,44 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>213100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>241600</v>
+      </c>
+      <c r="F46" s="3">
         <v>268300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>296500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>335000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>313800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>341500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>363900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>222500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2433,14 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,38 +2483,44 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F48" s="3">
         <v>8600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>8900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>9500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>6400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,8 +2533,14 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2583,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,38 +2683,44 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F52" s="3">
         <v>4800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,8 +2733,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,38 +2783,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>226100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>254500</v>
+      </c>
+      <c r="F54" s="3">
         <v>281800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>308100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>346200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>322000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>347100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>365100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>224800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2833,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,38 +2877,40 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F57" s="3">
         <v>6400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>9300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>10900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2923,14 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,38 +2973,44 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>22100</v>
+      </c>
+      <c r="F59" s="3">
         <v>21100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>20800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>30000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>31600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>23400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>22600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>16500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,38 +3023,44 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F60" s="3">
         <v>27600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>30200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>36900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>42600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>28000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>23100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>19300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +3073,14 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2838,37 +3123,43 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -2882,8 +3173,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,38 +3323,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>29100</v>
+      </c>
+      <c r="F66" s="3">
         <v>29900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>32900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>39600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>42700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>28200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>23300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>19300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3373,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3188,14 +3523,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>310600</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3208,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,38 +3593,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-382500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-356100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-324300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-297200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-260000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-194200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-151600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-127200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-107000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3643,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,38 +3793,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>205800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>225400</v>
+      </c>
+      <c r="F76" s="3">
         <v>251900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>275200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>306500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>279300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>318900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>341800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-105100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3843,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-27100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-37200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-65800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-42600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-24400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-20300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-64900</v>
       </c>
       <c r="L81" s="3">
         <v>-16000</v>
       </c>
       <c r="M81" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="O81" s="3">
         <v>-11200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,29 +4022,31 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
       </c>
       <c r="G83" s="3">
+        <v>500</v>
+      </c>
+      <c r="H83" s="3">
+        <v>500</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -3662,17 +4059,23 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-29300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-41700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-63300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-27600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-20500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-17900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-15000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-50200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-10900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-10200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4392,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-4000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F94" s="3">
         <v>15200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>41400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-9300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>29700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-194900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-73900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4612,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4658,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4808,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>83200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>156400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>190800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>39900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,48 +4908,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-14000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>10700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-216100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>64600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>175800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-10400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-11000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-10200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>KNSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,84 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,8 +791,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,8 +844,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E12" s="3">
         <v>20900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>30800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>59300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>36100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>56400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9300</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,31 +1024,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-800</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1057,8 +1077,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,58 +1150,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E17" s="3">
         <v>29400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>32600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>30400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>39300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>67600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>44100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>65400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11400</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1183,49 +1213,52 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-32600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-30400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-39300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-67600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-44100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-26200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-16300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-65400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-16200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11400</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,8 +1277,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1253,40 +1287,40 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>800</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>200</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1294,8 +1328,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1303,49 +1340,52 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-30900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-28500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-37100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-65400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-42200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-24500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-20400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-16000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-64800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-16100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,87 +1434,93 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-31500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-29100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-37600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-65800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-42400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-24500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-16000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-64900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-16100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11200</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-100</v>
       </c>
       <c r="M24" s="3">
         <v>-100</v>
@@ -1483,10 +1529,10 @@
         <v>-100</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-31800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-37200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-65800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-42600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-24400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-16000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-64800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-16000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11200</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-31800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-37200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-65800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-42600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-24400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-64800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-16000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1726,12 +1787,12 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,8 +1911,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1853,40 +1923,40 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>-200</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1894,58 +1964,64 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-31800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-37200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-65800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-42600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-24400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-64900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-16000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-31800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-37200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-65800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-42600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-24400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-64900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-16000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,41 +2225,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E41" s="3">
         <v>106300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>46900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>68800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>82800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>82600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>72000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>69700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>285500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>221100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,38 +2276,41 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>128900</v>
+      </c>
+      <c r="E42" s="3">
         <v>97900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>186500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>189900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>204600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>243900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>235300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>268200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>73700</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,8 +2329,11 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,41 +2435,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E45" s="3">
         <v>8800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,41 +2488,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>264500</v>
+      </c>
+      <c r="E46" s="3">
         <v>213100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>241600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>268300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>296500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>335000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>313800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>341500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>363900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>222500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,8 +2541,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,41 +2594,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E48" s="3">
         <v>7400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,8 +2647,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,41 +2806,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>5600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,41 +2912,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>271400</v>
+      </c>
+      <c r="E54" s="3">
         <v>226100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>254500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>281800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>308100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>346200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>322000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>347100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>365100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>224800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,41 +3009,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>4300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3060,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2979,41 +3113,44 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E59" s="3">
         <v>15100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>30000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>31600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,41 +3166,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E60" s="3">
         <v>19300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>30200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>42600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>28000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,8 +3219,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3129,40 +3272,43 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,41 +3484,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E66" s="3">
         <v>20300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>29100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>29900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>32900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>39600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>42700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>28200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3529,11 +3697,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>310600</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,41 +3770,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-420000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-382500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-356100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-324300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-297200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-260000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-194200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-151600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-127200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-107000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,41 +3982,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>250400</v>
+      </c>
+      <c r="E76" s="3">
         <v>205800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>225400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>251900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>275200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>306500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>279300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>318900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>341800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-105100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-31800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-37200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-65800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-42600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-24400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-64900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-16000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,8 +4222,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4036,7 +4235,7 @@
         <v>600</v>
       </c>
       <c r="F83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
@@ -4045,11 +4244,11 @@
         <v>500</v>
       </c>
       <c r="I83" s="3">
+        <v>500</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -4065,8 +4264,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-31800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-29300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-41700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-63300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-27600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-15000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-50200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,49 +4614,50 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,49 +4771,52 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E94" s="3">
         <v>88800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>15200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>41400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>29700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-194900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-73900</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,49 +5057,52 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E100" s="3">
         <v>2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>83200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>156400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>190800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>39900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -4864,8 +5110,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,54 +5163,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E102" s="3">
         <v>59400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-21900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-216100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>64600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>175800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>KNSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,88 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,8 +798,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,8 +854,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E12" s="3">
         <v>22300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>22000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>30800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>59300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>36100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>17200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>56400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9300</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,20 +1044,23 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-800</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1053,8 +1073,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1080,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,61 +1177,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E17" s="3">
         <v>31900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>29400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>32600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>30400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>39300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>67600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>44100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>65400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11400</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1213,52 +1243,55 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-29400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-32600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-30400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-39300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-67600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-44100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-26200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-21500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-16300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-65400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-16200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,8 +1311,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1287,43 +1321,43 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>200</v>
       </c>
       <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>200</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1331,8 +1365,11 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1340,52 +1377,55 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-28000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-30900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-28500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-37100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-65400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-42200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-24500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-20400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-16000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-64800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-16100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,93 +1477,99 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-29100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-37600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-65800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-42400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-24500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-16000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-64900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-16100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>5900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-100</v>
       </c>
       <c r="N24" s="3">
         <v>-100</v>
@@ -1532,10 +1578,10 @@
         <v>-100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-37500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-31800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-27100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-37200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-65800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-42600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-24400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-20300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-16000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-64800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-16000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-37500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-31800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-37200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-65800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-42600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-24400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-20300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-16000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-64800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-16000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1790,12 +1851,12 @@
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,8 +1981,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1923,43 +1993,43 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-200</v>
       </c>
       <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>-200</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -1967,61 +2037,67 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-37500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-26400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-31800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-27100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-37200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-65800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-42600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-24400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-20300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-16000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-64900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-16000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-37500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-26400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-31800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-27100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-37200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-65800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-42600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-24400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-20300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-16000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-64900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-16000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,44 +2312,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E41" s="3">
         <v>123500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>106300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>46900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>68800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>82800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>82600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>72000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>69700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>285500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>221100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,41 +2366,44 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>278500</v>
+      </c>
+      <c r="E42" s="3">
         <v>128900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>97900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>186500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>189900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>204600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>243900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>235300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>268200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>73700</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,8 +2422,11 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2385,8 +2478,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,44 +2534,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E45" s="3">
         <v>12100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,44 +2590,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>378400</v>
+      </c>
+      <c r="E46" s="3">
         <v>264500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>213100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>241600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>268300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>296500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>335000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>313800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>341500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>363900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>222500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,8 +2646,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2597,44 +2702,47 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E48" s="3">
         <v>6500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2758,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,44 +2926,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,44 +3038,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>384400</v>
+      </c>
+      <c r="E54" s="3">
         <v>271400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>226100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>254500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>281800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>308100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>346200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>322000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>347100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>365100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>224800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,44 +3140,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,8 +3194,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3116,44 +3250,47 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E59" s="3">
         <v>18200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>30000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>31600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,44 +3306,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E60" s="3">
         <v>20600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>30200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>36900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>42600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>28000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,8 +3362,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3275,43 +3418,46 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>200</v>
       </c>
       <c r="L62" s="3">
         <v>200</v>
       </c>
       <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,44 +3642,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E66" s="3">
         <v>21000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>29100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>32900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>39600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>42700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3700,11 +3868,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>310600</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,44 +3944,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-463800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-420000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-382500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-356100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-324300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-297200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-260000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-194200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-151600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-127200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-107000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,44 +4168,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>358500</v>
+      </c>
+      <c r="E76" s="3">
         <v>250400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>205800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>225400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>251900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>275200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>306500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>279300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>318900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>341800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-105100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-37500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-26400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-31800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-27100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-37200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-65800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-42600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-24400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-20300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-16000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-64900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-16000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4238,7 +4437,7 @@
         <v>600</v>
       </c>
       <c r="G83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
@@ -4247,11 +4446,11 @@
         <v>500</v>
       </c>
       <c r="J83" s="3">
+        <v>500</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -4267,8 +4466,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4276,8 +4475,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-29200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-31800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-24200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-29300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-41700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-63300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-27600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-15000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-50200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,8 +4835,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4624,43 +4845,43 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -4668,8 +4889,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,52 +5001,55 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-149700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-31200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>88800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>15200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>41400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>29700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-194900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-73900</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
@@ -4827,8 +5057,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,52 +5303,55 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E100" s="3">
         <v>77600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>83200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>156400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>190800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>39900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
@@ -5113,8 +5359,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E102" s="3">
         <v>17100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>59400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-21900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-216100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>64600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>175800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>KNSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,91 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,8 +804,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,8 +863,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,64 +947,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E12" s="3">
         <v>31400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>22900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>22000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>30800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>59300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>36100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>17200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>56400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9300</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,23 +1063,26 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-800</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1076,8 +1095,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1103,8 +1122,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,64 +1203,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E17" s="3">
         <v>43200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>31900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>29400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>32600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>30400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>39300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>67600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>44100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>65400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11400</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1243,55 +1272,58 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-31900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-32600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-30400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-39300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-67600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-44100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-21500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-16300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-65400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11400</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,8 +1344,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1321,46 +1354,46 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>200</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1368,8 +1401,11 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1377,55 +1413,58 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-31000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-28000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-30900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-28500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-37100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-65400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-42200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-24500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-20400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-16000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-64800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,99 +1519,105 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-43200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-31600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-29100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-37600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-65800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-42400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-24500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-16000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-64900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11200</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-100</v>
       </c>
       <c r="O24" s="3">
         <v>-100</v>
@@ -1581,10 +1626,10 @@
         <v>-100</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
@@ -1592,8 +1637,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-43800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-37500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-31800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-27100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-37200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-65800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-42600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-24400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-16000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-64800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11200</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-43800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-37500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-26400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-31800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-27100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-37200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-65800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-42600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-24400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-20300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-16000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-64800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11200</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1854,12 +1914,12 @@
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1872,8 +1932,11 @@
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,8 +2050,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1993,46 +2062,46 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>-200</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2040,64 +2109,70 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-43800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-37500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-26400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-31800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-27100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-37200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-65800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-42600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-24400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-16000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-64900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11200</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-43800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-37500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-26400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-31800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-27100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-37200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-65800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-42600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-24400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-16000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-64900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11200</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,47 +2398,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E41" s="3">
         <v>85900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>123500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>106300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>46900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>68800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>82800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>82600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>72000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>69700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>285500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>221100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,44 +2455,47 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>209400</v>
+      </c>
+      <c r="E42" s="3">
         <v>278500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>128900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>97900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>186500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>189900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>204600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>243900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>235300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>268200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>73700</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2425,8 +2514,11 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2481,8 +2573,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,47 +2632,50 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E45" s="3">
         <v>14000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,47 +2691,50 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>333200</v>
+      </c>
+      <c r="E46" s="3">
         <v>378400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>264500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>213100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>241600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>268300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>296500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>335000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>313800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>341500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>363900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>222500</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2750,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,47 +2809,50 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E48" s="3">
         <v>5700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,8 +2868,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2817,8 +2927,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,47 +3045,50 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3104,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,47 +3163,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>349500</v>
+      </c>
+      <c r="E54" s="3">
         <v>384400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>271400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>226100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>254500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>281800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>308100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>346200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>322000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>347100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>365100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>224800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,47 +3270,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3327,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3253,47 +3386,50 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E59" s="3">
         <v>21000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>30000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>31600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,47 +3445,50 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E60" s="3">
         <v>24900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>30200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>36900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>42600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>28000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,8 +3504,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3421,46 +3563,49 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>200</v>
       </c>
       <c r="M62" s="3">
         <v>200</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -3477,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,47 +3799,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E66" s="3">
         <v>25900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>32900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>39600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>42700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3871,11 +4038,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>310600</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,47 +4117,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-517500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-463800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-420000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-382500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-356100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-324300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-297200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-260000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-194200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-151600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-127200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-107000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,47 +4353,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>311900</v>
+      </c>
+      <c r="E76" s="3">
         <v>358500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>250400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>205800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>225400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>251900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>275200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>306500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>279300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>318900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>341800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-105100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-43800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-37500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-26400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-31800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-27100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-37200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-65800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-42600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-24400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-16000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-64900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11200</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +4619,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4440,7 +4638,7 @@
         <v>600</v>
       </c>
       <c r="H83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
@@ -4449,11 +4647,11 @@
         <v>500</v>
       </c>
       <c r="K83" s="3">
+        <v>500</v>
+      </c>
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -4469,8 +4667,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4478,8 +4676,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-34300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-29200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-31800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-24200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-29300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-41700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-63300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-27600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-15000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-50200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10200</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,55 +5055,56 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
@@ -4892,8 +5112,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,55 +5230,58 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-149700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-31200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>88800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>15200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>41400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>29700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-194900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-73900</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
@@ -5060,8 +5289,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,55 +5548,58 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>146400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>77600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>83200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>156400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>190800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>39900</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
@@ -5362,8 +5607,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,60 +5666,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-37600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>59400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-21900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-216100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>64600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>175800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
   <si>
     <t>KNSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,95 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,8 +811,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -866,8 +873,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -925,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,67 +961,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E12" s="3">
         <v>37400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>31400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>22900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>22000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>30800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>59300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>36100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>17200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>56400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9300</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,26 +1083,29 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-800</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1098,8 +1118,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1125,8 +1145,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,67 +1230,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E17" s="3">
         <v>52900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>31900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>30400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>39300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>67600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>44100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>65400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11400</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1272,58 +1302,61 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-43200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-31900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-29400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-32600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-30400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-39300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-67600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-44100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-21500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-16300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-65400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-16200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-11400</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,8 +1378,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1357,46 +1391,46 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>200</v>
       </c>
       <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>200</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1404,8 +1438,11 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1413,58 +1450,61 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-42500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-31000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-28000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-30900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-28500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-37100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-65400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-42200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-24500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-20400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-16000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-64800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-16100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-11200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1522,105 +1562,111 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-52900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-43200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-28600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-29100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-37600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-65800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-42400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-24500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-16000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-64900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-16100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11200</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-100</v>
       </c>
       <c r="P24" s="3">
         <v>-100</v>
@@ -1629,10 +1675,10 @@
         <v>-100</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1686,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-53700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-43800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-37500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-31800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-27100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-37200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-65800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-42600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-24400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-16000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-64800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-16000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11200</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-53700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-43800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-37500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-31800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-27100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-37200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-65800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-42600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-24400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-16000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-64800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-16000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11200</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,31 +1934,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
@@ -1917,12 +1978,12 @@
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,8 +2120,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2065,46 +2135,46 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-200</v>
       </c>
       <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>-200</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2112,67 +2182,73 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-53700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-43800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-37500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-31800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-27100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-37200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-65800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-42600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-24400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-16000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-64900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-16000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11200</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-53700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-43800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-37500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-31800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-27100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-37200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-65800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-42600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-24400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-16000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-64900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-16000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11200</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,50 +2485,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>119900</v>
+      </c>
+      <c r="E41" s="3">
         <v>114000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>85900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>123500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>106300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>46900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>68800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>82800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>82600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>72000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>69700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>285500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>221100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,47 +2545,50 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E42" s="3">
         <v>209400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>278500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>128900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>97900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>186500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>189900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>204600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>243900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>235300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>268200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>73700</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2517,8 +2607,11 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2576,31 +2669,34 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>2200</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2635,50 +2731,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E45" s="3">
         <v>9800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,50 +2793,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>275600</v>
+      </c>
+      <c r="E46" s="3">
         <v>333200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>378400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>264500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>213100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>241600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>268300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>296500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>335000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>313800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>341500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>363900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>222500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,8 +2855,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2812,50 +2917,53 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E48" s="3">
         <v>10600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2871,31 +2979,34 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2930,8 +3041,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,50 +3165,53 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E52" s="3">
         <v>5600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3107,8 +3227,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,50 +3289,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>311200</v>
+      </c>
+      <c r="E54" s="3">
         <v>349500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>384400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>271400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>226100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>254500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>281800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>308100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>346200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>322000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>347100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>365100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>224800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3351,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,50 +3401,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,8 +3461,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3389,50 +3523,53 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E59" s="3">
         <v>31300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>22100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3448,50 +3585,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E60" s="3">
         <v>31800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>27600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>30200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>42600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>28000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,8 +3647,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3566,49 +3709,52 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>200</v>
       </c>
       <c r="N62" s="3">
         <v>200</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -3625,8 +3771,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,50 +3957,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E66" s="3">
         <v>37500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>32900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>42700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4041,11 +4209,11 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>310600</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,50 +4291,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-567000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-517500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-463800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-420000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-382500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-356100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-324300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-297200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-260000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-194200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-151600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-127200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-107000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,50 +4539,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>270700</v>
+      </c>
+      <c r="E76" s="3">
         <v>311900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>358500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>250400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>205800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>225400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>251900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>275200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>306500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>279300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>318900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>341800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-105100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4415,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-53700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-43800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-37500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-31800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-27100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-37200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-65800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-42600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-24400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-16000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-64900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-16000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11200</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,13 +4818,14 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>600</v>
@@ -4641,7 +4840,7 @@
         <v>600</v>
       </c>
       <c r="I83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -4650,11 +4849,11 @@
         <v>500</v>
       </c>
       <c r="L83" s="3">
+        <v>500</v>
+      </c>
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -4670,8 +4869,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
@@ -4679,8 +4878,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-41200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-34300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-29200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-31800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-24200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-29300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-41700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-63300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-27600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-20500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-17900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-15000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-50200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-10200</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,8 +5276,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5065,49 +5286,49 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
@@ -5115,8 +5336,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,58 +5460,61 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E94" s="3">
         <v>68600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-149700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-31200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>88800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>15200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>41400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>29700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-194900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-73900</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
@@ -5292,8 +5522,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,58 +5794,61 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>146400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>77600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>83200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>156400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>190800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>39900</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
@@ -5610,8 +5856,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5669,63 +5918,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E102" s="3">
         <v>28200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-37600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>17100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>59400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-21900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-216100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>64600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>175800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-11000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10200</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
   <si>
     <t>KNSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,122 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -814,13 +818,16 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>2500</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -876,13 +883,16 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>5200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -938,8 +948,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,70 +975,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E12" s="3">
         <v>28700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>37400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>31400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>22300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>22900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>22000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>30800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>59300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>36100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>17200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>56400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>14000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9300</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,31 +1103,34 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1121,8 +1141,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1148,8 +1168,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E17" s="3">
         <v>49300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>52900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>43200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>31900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>39300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>67600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>44100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>65400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11400</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-52900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-43200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-31900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-29400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-32600</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-30400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-39300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-67600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-44100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-26200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-21500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-65400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-16200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11400</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,61 +1412,62 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
-      </c>
-      <c r="R20" s="3">
-        <v>200</v>
       </c>
       <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="T20" s="3">
+        <v>200</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
@@ -1441,70 +1475,76 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-52300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-42500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-31000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-28000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-30900</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-28500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-37100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-65400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-42200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-24500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-20400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-64800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-16100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-11200</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1565,111 +1605,117 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-49300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-52900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-43200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-28600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-29100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-37600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-65800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-42400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-24500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-64900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-16100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11200</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-100</v>
       </c>
       <c r="Q24" s="3">
         <v>-100</v>
@@ -1678,10 +1724,10 @@
         <v>-100</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
@@ -1689,8 +1735,11 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-49500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-53700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-43800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-37500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-31800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-27100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-37200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-65800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-42600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-24400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-64800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-16000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11200</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-49500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-53700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-43800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-37500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-31800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-27100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-37200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-65800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-42600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-24400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-64800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-16000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11200</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1963,8 +2024,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
@@ -1981,12 +2042,12 @@
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,61 +2190,64 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-200</v>
       </c>
       <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="T32" s="3">
+        <v>-200</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
@@ -2185,70 +2255,76 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-49500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-53700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-43800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-37500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-26400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-31800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-27100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-37200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-65800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-42600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-24400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-64900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-16000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11200</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-49500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-53700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-43800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-37500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-26400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-31800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-27100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-37200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-65800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-42600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-24400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-64900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-16000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11200</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,53 +2572,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E41" s="3">
         <v>119900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>114000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>85900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>123500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>106300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>46900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>68800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>82800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>82600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>72000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>69700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>285500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>221100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2548,50 +2635,53 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E42" s="3">
         <v>144200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>209400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>278500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>128900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>97900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>186500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>189900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>204600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>243900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>235300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>268200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>73700</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,31 +2700,34 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>2600</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2672,17 +2765,20 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E44" s="3">
         <v>2200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2698,8 +2794,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2734,53 +2830,56 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E45" s="3">
         <v>9400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,53 +2895,56 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>244800</v>
+      </c>
+      <c r="E46" s="3">
         <v>275600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>333200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>378400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>264500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>213100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>241600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>268300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>296500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>335000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>313800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>341500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>363900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>222500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2858,8 +2960,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2920,53 +3025,56 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E48" s="3">
         <v>9800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,17 +3090,20 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E49" s="3">
         <v>20000</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3008,8 +3119,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3044,8 +3155,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,8 +3285,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3177,44 +3297,44 @@
         <v>5800</v>
       </c>
       <c r="E52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F52" s="3">
         <v>5600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3230,8 +3350,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,53 +3415,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>279200</v>
+      </c>
+      <c r="E54" s="3">
         <v>311200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>349500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>384400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>271400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>226100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>254500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>281800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>308100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>346200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>322000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>347100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>365100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>224800</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3480,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,53 +3532,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3464,8 +3595,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3526,53 +3660,56 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E59" s="3">
         <v>32700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>31300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>22100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>30000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>31600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3588,53 +3725,56 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E60" s="3">
         <v>35500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>31800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>27800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>30200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>36900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>42600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>28000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19300</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3790,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3712,52 +3855,55 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E62" s="3">
         <v>5000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>200</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
@@ -3774,8 +3920,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,53 +4115,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E66" s="3">
         <v>40500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>42700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>28200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4022,8 +4180,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4212,11 +4380,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>310600</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,53 +4465,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-608500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-567000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-517500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-463800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-420000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-382500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-356100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-324300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-297200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-260000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-194200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-151600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-127200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-107000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4356,8 +4530,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,53 +4725,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>235800</v>
+      </c>
+      <c r="E76" s="3">
         <v>270700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>311900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>358500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>250400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>205800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>225400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>251900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>275200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>306500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>279300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>318900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>341800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-105100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4604,8 +4790,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-49500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-53700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-43800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-37500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-26400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-31800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-27100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-37200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-65800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-42600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-24400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-64900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-16000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11200</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,16 +5017,17 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>600</v>
@@ -4843,7 +5042,7 @@
         <v>600</v>
       </c>
       <c r="J83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
@@ -4852,11 +5051,11 @@
         <v>500</v>
       </c>
       <c r="M83" s="3">
+        <v>500</v>
+      </c>
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -4872,8 +5071,8 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
@@ -4881,8 +5080,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-40100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-41200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-34300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-29200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-31800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-24200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-29300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-41700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-63300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-27600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-17900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-50200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-10900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-10200</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,8 +5497,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5289,49 +5510,49 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
@@ -5339,8 +5560,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,61 +5690,64 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E94" s="3">
         <v>44800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>68600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-149700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-31200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>88800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>15200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>41400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>29700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-194900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-73900</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
@@ -5525,8 +5755,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,61 +6040,64 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>146400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>77600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>83200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>156400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>190800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>39900</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
@@ -5859,8 +6105,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,66 +6170,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E102" s="3">
         <v>5800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>28200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-37600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>59400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-216100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>64600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>175800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-11000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10200</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E8" s="3">
         <v>7700</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,8 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -821,17 +825,20 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E9" s="3">
         <v>2500</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -886,17 +893,20 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E10" s="3">
         <v>5200</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
@@ -951,8 +961,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,73 +989,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E12" s="3">
         <v>23900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>28700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>37400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>31400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>22300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>22900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>30800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>59300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>36100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>17200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>56400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>14000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9300</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,8 +1123,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1132,8 +1152,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -1144,8 +1164,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1171,8 +1191,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,82 +1284,86 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E17" s="3">
         <v>48300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>49300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>52900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>31900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>32600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>39300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>67600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>44100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>65400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11400</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-40600</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1349,47 +1379,50 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-30400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-39300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-67600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-44100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-26200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-16300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-65400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-16200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-11400</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,16 +1446,17 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1439,38 +1473,38 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
-      </c>
-      <c r="S20" s="3">
-        <v>200</v>
       </c>
       <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
+      <c r="U20" s="3">
+        <v>200</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
@@ -1478,17 +1512,20 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-39800</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1504,47 +1541,50 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-28500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-37100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-65400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-42200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-24500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-16000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-64800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-16100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-11200</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1608,117 +1648,123 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-40500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-49300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-52900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-43200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-28600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-31500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-29100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-37600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-65800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-42400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-24500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-16000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-64900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-16100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11200</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-100</v>
       </c>
       <c r="R24" s="3">
         <v>-100</v>
@@ -1727,10 +1773,10 @@
         <v>-100</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
@@ -1738,8 +1784,11 @@
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-41600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-49500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-53700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-43800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-37500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-26400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-31800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-37200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-65800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-42600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-24400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-16000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-64800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-16000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11200</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-41600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-49500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-53700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-43800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-37500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-26400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-31800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-27100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-37200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-65800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-42600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-24400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-16000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-64800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-16000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11200</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2027,8 +2088,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
@@ -2045,12 +2106,12 @@
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,16 +2260,19 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -2219,38 +2289,38 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-200</v>
       </c>
       <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
+      <c r="U32" s="3">
+        <v>-200</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
@@ -2258,73 +2328,79 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-41600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-49500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-53700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-43800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-37500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-26400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-31800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-27100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-37200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-65800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-42600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-24400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-16000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-64900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-16000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11200</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-41600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-49500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-53700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-43800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-37500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-26400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-31800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-27100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-37200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-65800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-42600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-24400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-16000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-64900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-16000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11200</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,56 +2659,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>190200</v>
+      </c>
+      <c r="E41" s="3">
         <v>168000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>119900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>114000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>85900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>123500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>106300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>46900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>68800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>82800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>82600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>72000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>69700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>285500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>221100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2638,53 +2725,56 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E42" s="3">
         <v>57900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>144200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>209400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>278500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>128900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>97900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>186500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>189900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>204600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>243900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>235300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>268200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>73700</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,17 +2793,20 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2600</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2729,8 +2822,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2768,20 +2861,23 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E44" s="3">
         <v>6400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2200</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,8 +2893,8 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2833,56 +2929,59 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E45" s="3">
         <v>10000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,56 +2997,59 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>217500</v>
+      </c>
+      <c r="E46" s="3">
         <v>244800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>275600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>333200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>378400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>264500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>213100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>241600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>268300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>296500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>335000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>313800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>341500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>363900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>222500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2963,8 +3065,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3028,56 +3133,59 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E48" s="3">
         <v>8800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,20 +3201,23 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E49" s="3">
         <v>19800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>20000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,8 +3233,8 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -3158,8 +3269,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,56 +3405,59 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5800</v>
+        <v>6600</v>
       </c>
       <c r="E52" s="3">
         <v>5800</v>
       </c>
       <c r="F52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G52" s="3">
         <v>5600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3473,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,56 +3541,59 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>252900</v>
+      </c>
+      <c r="E54" s="3">
         <v>279200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>311200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>349500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>384400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>271400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>226100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>254500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>281800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>308100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>346200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>322000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>347100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>365100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>224800</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3483,8 +3609,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,56 +3663,57 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,8 +3729,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3663,56 +3797,59 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E59" s="3">
         <v>34600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>31300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>22100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>31600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3728,56 +3865,59 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E60" s="3">
         <v>38800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>35500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>30200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>36900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>42600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>28000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3793,8 +3933,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3858,55 +4001,58 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E62" s="3">
         <v>4600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>200</v>
       </c>
       <c r="P62" s="3">
         <v>200</v>
       </c>
       <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
@@ -3923,8 +4069,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,56 +4273,59 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E66" s="3">
         <v>43400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>40500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>42700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>28200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4183,8 +4341,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4383,11 +4551,11 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>310600</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,56 +4639,59 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-639100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-608500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-567000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-517500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-463800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-420000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-382500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-356100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-324300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-297200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-260000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-194200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-151600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-127200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-107000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4533,8 +4707,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,56 +4911,59 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E76" s="3">
         <v>235800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>270700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>311900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>358500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>250400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>205800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>225400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>251900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>275200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>306500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>279300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>318900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>341800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-105100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4793,8 +4979,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-41600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-49500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-53700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-43800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-37500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-26400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-31800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-27100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-37200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-65800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-42600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-24400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-16000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-64900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-16000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11200</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,8 +5216,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5027,10 +5226,10 @@
         <v>700</v>
       </c>
       <c r="E83" s="3">
+        <v>700</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>600</v>
       </c>
       <c r="G83" s="3">
         <v>600</v>
@@ -5045,7 +5244,7 @@
         <v>600</v>
       </c>
       <c r="K83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L83" s="3">
         <v>500</v>
@@ -5054,11 +5253,11 @@
         <v>500</v>
       </c>
       <c r="N83" s="3">
+        <v>500</v>
+      </c>
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -5074,8 +5273,8 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
@@ -5083,8 +5282,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-38800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-40100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-41200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-34300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-29200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-31800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-24200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-29300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-41700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-63300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-27600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-15000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-50200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-10900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-10200</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,8 +5718,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5513,49 +5734,49 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
@@ -5563,8 +5784,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,64 +5920,67 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E94" s="3">
         <v>86000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>44800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>68600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-149700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>88800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>15200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>41400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>29700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-194900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-73900</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
@@ -5758,8 +5988,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,64 +6286,67 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>146400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>77600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>83200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>156400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>190800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>39900</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
@@ -6108,8 +6354,11 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6173,69 +6422,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E102" s="3">
         <v>48100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>28200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-37600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>59400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-21900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-216100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>64600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>175800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-11000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10200</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,118 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E8" s="3">
         <v>12100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7700</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -789,8 +792,8 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -828,20 +831,23 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2500</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -896,20 +902,23 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E10" s="3">
         <v>9300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5200</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -964,8 +973,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,76 +1002,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E12" s="3">
         <v>19200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>37400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>31400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>22300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>30800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>59300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>36100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>20600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>17200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>56400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>14000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9300</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1142,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1155,8 +1174,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1167,8 +1186,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1194,8 +1213,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,88 +1310,92 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E17" s="3">
         <v>42800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>48300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>49300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>52900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>43200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>31900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>39300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>67600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>44100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>65400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11400</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-30700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-40600</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,47 +1411,50 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-30400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-39300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-67600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-44100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-21500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-16300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-65400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-16200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-11400</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,19 +1479,20 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1476,38 +1509,38 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
-      </c>
-      <c r="T20" s="3">
-        <v>200</v>
       </c>
       <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
+      <c r="V20" s="3">
+        <v>200</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
@@ -1515,20 +1548,23 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-30000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-39800</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1544,47 +1580,50 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-28500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-37100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-65400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-42200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-20400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-16000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-64800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-16100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-11200</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1651,123 +1690,129 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-40500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-49300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-52900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-43200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-28600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-31500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-29100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-37600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-65800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-42400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-16000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-64900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-16100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11200</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-100</v>
       </c>
       <c r="S24" s="3">
         <v>-100</v>
@@ -1776,10 +1821,10 @@
         <v>-100</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
@@ -1787,8 +1832,11 @@
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-41600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-49500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-53700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-43800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-37500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-26400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-31800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-37200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-65800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-42600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-16000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-64800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-16000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-11200</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-41600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-49500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-53700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-43800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-37500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-26400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-37200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-65800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-42600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-16000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-64800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-16000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-11200</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2091,8 +2151,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
@@ -2109,12 +2169,12 @@
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2187,11 @@
       <c r="X29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,19 +2329,22 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -2292,38 +2361,38 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-200</v>
       </c>
       <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
+      <c r="V32" s="3">
+        <v>-200</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
@@ -2331,76 +2400,82 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-41600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-49500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-53700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-43800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-37500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-26400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-31800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-27100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-37200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-65800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-42600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-16000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-64900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-16000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-11200</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-41600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-49500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-53700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-43800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-37500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-26400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-31800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-27100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-37200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-65800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-42600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-16000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-64900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-16000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-11200</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,59 +2745,60 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>122500</v>
+      </c>
+      <c r="E41" s="3">
         <v>190200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>168000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>119900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>114000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>85900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>123500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>106300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>46900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>68800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>82800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>82600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>72000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>69700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>285500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>221100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2728,56 +2814,59 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E42" s="3">
         <v>10000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>57900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>144200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>209400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>278500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>128900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>97900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>186500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>189900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>204600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>243900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>235300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>268200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>73700</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,20 +2885,23 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2825,8 +2917,8 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2864,23 +2956,26 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E44" s="3">
         <v>5600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +2991,8 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2932,59 +3027,62 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E45" s="3">
         <v>8500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1300</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3000,59 +3098,62 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>196400</v>
+      </c>
+      <c r="E46" s="3">
         <v>217500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>244800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>275600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>333200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>378400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>264500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>213100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>241600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>268300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>296500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>335000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>313800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>341500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>363900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>222500</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3068,8 +3169,11 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3136,59 +3240,62 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E48" s="3">
         <v>9300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3204,23 +3311,26 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E49" s="3">
         <v>19500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>20000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3236,8 +3346,8 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3272,8 +3382,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,59 +3524,62 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E52" s="3">
         <v>6600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>5800</v>
       </c>
       <c r="F52" s="3">
         <v>5800</v>
       </c>
       <c r="G52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H52" s="3">
         <v>5600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3595,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,59 +3666,62 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>232800</v>
+      </c>
+      <c r="E54" s="3">
         <v>252900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>279200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>311200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>349500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>384400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>271400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>226100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>254500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>281800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>308100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>346200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>322000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>347100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>365100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>224800</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3612,8 +3737,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,59 +3793,60 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2800</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3732,8 +3862,11 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3800,59 +3933,62 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E59" s="3">
         <v>32800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>34600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>31300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>30000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>31600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>23400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>22600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,59 +4004,62 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E60" s="3">
         <v>34400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>38800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>35500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>31800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>30200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>36900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>42600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>28000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19300</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,8 +4075,11 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4004,58 +4146,61 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E62" s="3">
         <v>4400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>100</v>
-      </c>
-      <c r="P62" s="3">
-        <v>200</v>
       </c>
       <c r="Q62" s="3">
         <v>200</v>
       </c>
       <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
@@ -4072,8 +4217,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,59 +4430,62 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E66" s="3">
         <v>38800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>43400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>40500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>39600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>42700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>28200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19300</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4344,8 +4501,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4554,11 +4721,11 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>310600</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,59 +4812,62 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-675400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-639100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-608500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-567000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-517500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-463800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-420000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-382500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-356100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-324300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-297200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-260000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-194200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-151600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-127200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-107000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4710,8 +4883,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,59 +5096,62 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E76" s="3">
         <v>214000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>235800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>270700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>311900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>358500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>250400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>205800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>225400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>251900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>275200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>306500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>279300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>318900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>341800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-105100</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4982,8 +5167,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-41600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-49500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-53700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-43800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-37500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-26400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-31800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-27100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-37200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-65800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-42600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-16000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-64900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-16000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-11200</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,8 +5414,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5229,10 +5427,10 @@
         <v>700</v>
       </c>
       <c r="F83" s="3">
+        <v>700</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>600</v>
       </c>
       <c r="H83" s="3">
         <v>600</v>
@@ -5247,7 +5445,7 @@
         <v>600</v>
       </c>
       <c r="L83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M83" s="3">
         <v>500</v>
@@ -5256,11 +5454,11 @@
         <v>500</v>
       </c>
       <c r="O83" s="3">
+        <v>500</v>
+      </c>
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -5276,8 +5474,8 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
@@ -5285,8 +5483,11 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-28500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-38800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-40100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-41200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-34300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-29200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-31800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-24200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-29300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-41700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-63300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-27600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-17900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-15000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-50200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-10900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-10200</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,13 +5938,14 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -5737,49 +5957,49 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
@@ -5787,8 +6007,11 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,67 +6149,70 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E94" s="3">
         <v>47800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>86000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>44800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>68600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-149700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>88800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>15200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>41400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>29700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-194900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-73900</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
@@ -5991,8 +6220,11 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,67 +6531,70 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>146400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>77600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>83200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>156400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>190800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>39900</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
@@ -6357,8 +6602,11 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6425,72 +6673,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="E102" s="3">
         <v>22000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>48100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>28200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-37600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>59400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-14000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-216100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>64600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>175800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-11000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-10200</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>KNSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,125 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E8" s="3">
         <v>18700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7700</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,8 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -834,23 +838,26 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E9" s="3">
         <v>3900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2500</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -905,23 +912,26 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E10" s="3">
         <v>14800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5200</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -976,8 +986,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1003,79 +1016,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E12" s="3">
         <v>27400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>37400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>31400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>22300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>30800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>59300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>36100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>20600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>17200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>56400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>14000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>9300</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,8 +1162,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1177,8 +1197,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1189,8 +1209,8 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1216,8 +1236,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,8 +1310,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,94 +1337,98 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E17" s="3">
         <v>54900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>42800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>48300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>49300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>52900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>43200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>31900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>30400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>39300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>67600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>44100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>26200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>65400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>16200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11400</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-36200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-30700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-40600</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1414,47 +1444,50 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-30400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-39300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-67600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-44100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-26200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-21500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-16300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-65400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-16200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-11400</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,22 +1513,23 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1512,38 +1546,38 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
-      </c>
-      <c r="U20" s="3">
-        <v>200</v>
       </c>
       <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
+      <c r="W20" s="3">
+        <v>200</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
@@ -1551,23 +1585,26 @@
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-35400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-30000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-39800</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1583,47 +1620,50 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-28500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-37100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-65400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-42200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-24500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-20400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-16000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-64800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-16100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-11200</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1693,129 +1733,135 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-36100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-30700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-40500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-49300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-52900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-43200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-31600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-28600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-31500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-29100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-37600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-65800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-42400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-24500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-20500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-16000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-64900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-16100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-11200</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-200</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-100</v>
       </c>
       <c r="T24" s="3">
         <v>-100</v>
@@ -1824,10 +1870,10 @@
         <v>-100</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
@@ -1835,8 +1881,11 @@
       <c r="Y24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1955,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-36300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-41600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-49500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-53700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-43800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-37500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-31800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-27100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-37200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-65800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-24400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-16000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-64800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-16000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-11200</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-36300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-41600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-49500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-53700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-43800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-37500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-31800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-27100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-37200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-65800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-24400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-16000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-64800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-16000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-11200</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2177,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2154,8 +2215,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
@@ -2172,12 +2233,12 @@
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U29" s="3">
         <v>-100</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,8 +2251,11 @@
       <c r="Y29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,22 +2399,25 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -2364,38 +2434,38 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-200</v>
       </c>
       <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
+      <c r="W32" s="3">
+        <v>-200</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
@@ -2403,79 +2473,85 @@
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-36300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-41600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-49500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-53700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-43800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-37500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-31800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-27100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-37200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-65800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-24400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-20300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-16000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-64900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-16000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-11200</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2621,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-36300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-41600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-49500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-53700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-43800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-37500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-31800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-27100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-37200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-65800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-24400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-20300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-16000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-64900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-16000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-11200</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,62 +2832,63 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E41" s="3">
         <v>122500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>190200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>168000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>119900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>114000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>85900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>123500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>106300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>46900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>68800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>82800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>82600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>72000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>69700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>285500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>221100</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,59 +2904,62 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E42" s="3">
         <v>59700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>10000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>57900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>144200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>209400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>278500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>128900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>97900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>186500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>189900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>204600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>243900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>235300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>268200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>73700</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,23 +2978,26 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E43" s="3">
         <v>4000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2600</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2920,8 +3013,8 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2959,26 +3052,29 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E44" s="3">
         <v>3700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2200</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2994,8 +3090,8 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -3030,62 +3126,65 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E45" s="3">
         <v>6600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1300</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3101,62 +3200,65 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>198800</v>
+      </c>
+      <c r="E46" s="3">
         <v>196400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>217500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>244800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>275600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>333200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>378400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>264500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>213100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>241600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>268300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>296500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>335000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>313800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>341500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>363900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>222500</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3172,8 +3274,11 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3243,62 +3348,65 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E48" s="3">
         <v>8400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3314,26 +3422,29 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E49" s="3">
         <v>19300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>20000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3349,8 +3460,8 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3385,8 +3496,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,62 +3644,65 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E52" s="3">
         <v>8700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5800</v>
       </c>
       <c r="G52" s="3">
         <v>5800</v>
       </c>
       <c r="H52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I52" s="3">
         <v>5600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,8 +3718,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,62 +3792,65 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E54" s="3">
         <v>232800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>252900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>279200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>311200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>349500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>384400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>271400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>226100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>254500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>281800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>308100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>346200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>322000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>347100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>365100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>224800</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3740,8 +3866,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,62 +3924,63 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2800</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3865,8 +3996,11 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3936,62 +4070,65 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E59" s="3">
         <v>43000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>31300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>30000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>31600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>23400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>22600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4007,62 +4144,65 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E60" s="3">
         <v>44800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>38800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>35500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>31800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>24900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>30200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>36900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>42600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>28000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19300</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4078,8 +4218,11 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4149,61 +4292,64 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E62" s="3">
         <v>2900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>100</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>200</v>
       </c>
       <c r="R62" s="3">
         <v>200</v>
       </c>
       <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
@@ -4220,8 +4366,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,62 +4588,65 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E66" s="3">
         <v>47800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>38800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>40500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>37500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>39600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>42700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>28200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19300</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4504,8 +4662,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4724,11 +4892,11 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>310600</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4744,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,62 +4986,65 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-700600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-675400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-639100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-608500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-567000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-517500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-463800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-420000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-382500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-356100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-324300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-297200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-260000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-194200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-151600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-127200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-107000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4886,8 +5060,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,62 +5282,65 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>166200</v>
+      </c>
+      <c r="E76" s="3">
         <v>185000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>214000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>235800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>270700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>311900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>358500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>250400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>205800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>225400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>251900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>275200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>306500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>279300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>318900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>341800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-105100</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5170,8 +5356,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5430,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-36300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-41600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-49500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-53700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-43800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-37500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-31800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-27100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-37200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-65800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-24400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-20300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-16000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-64900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-16000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-11200</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,8 +5613,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5430,10 +5629,10 @@
         <v>700</v>
       </c>
       <c r="G83" s="3">
+        <v>700</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>600</v>
       </c>
       <c r="I83" s="3">
         <v>600</v>
@@ -5448,7 +5647,7 @@
         <v>600</v>
       </c>
       <c r="M83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N83" s="3">
         <v>500</v>
@@ -5457,11 +5656,11 @@
         <v>500</v>
       </c>
       <c r="P83" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q83" s="3">
         <v>300</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
@@ -5477,8 +5676,8 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
@@ -5486,8 +5685,11 @@
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6055,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-28500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-38800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-40100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-41200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-34300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-29200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-31800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-24200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-29300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-41700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-63300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-20500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-17900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-15000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-50200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-10900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-10200</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,16 +6159,17 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -5960,49 +6181,49 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-100</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
       </c>
       <c r="U91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
@@ -6010,8 +6231,11 @@
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,70 +6379,73 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-50000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>47800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>86000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>44800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>68600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-149700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-31200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>88800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>15200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>41400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>29700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-194900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-73900</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
@@ -6223,8 +6453,11 @@
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6483,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6555,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,70 +6777,73 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>146400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>77600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>83200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>156400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>190800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>39900</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
+      <c r="W100" s="3">
+        <v>0</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
@@ -6605,8 +6851,11 @@
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6676,75 +6925,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-67700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>22000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>48100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>28200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-37600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>17100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>59400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-21900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-14000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-216100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>64600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>175800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-11000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-10200</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>KNSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,128 +665,132 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E8" s="3">
         <v>32200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7700</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,8 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -841,26 +845,29 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2500</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -915,26 +922,29 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E10" s="3">
         <v>28000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -989,8 +999,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1017,82 +1030,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E12" s="3">
         <v>20800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>37400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>31400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>22000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>30800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>59300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>36100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>20600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>17200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>12600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>56400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>14000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>9300</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,8 +1182,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1200,8 +1220,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1212,8 +1232,8 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1239,8 +1259,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1313,8 +1336,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,100 +1364,104 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E17" s="3">
         <v>55500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>54900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>42800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>48300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>49300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>52900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>43200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>30400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>39300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>67600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>44100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>26200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>65400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>16200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11400</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-23300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-36200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-30700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-40600</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1447,47 +1477,50 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-30400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-39300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-67600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-44100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-26200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-21500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-16300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-65400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-16200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-11400</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,25 +1547,26 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1549,38 +1583,38 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
-      </c>
-      <c r="V20" s="3">
-        <v>200</v>
       </c>
       <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
+      <c r="X20" s="3">
+        <v>200</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
@@ -1588,26 +1622,29 @@
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-22600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-35400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-30000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-39800</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1623,47 +1660,50 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-28500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-37100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-65400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-42200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-24500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-20400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-16000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-64800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-16100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-11200</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1736,135 +1776,141 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-23300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-36100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-30700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-40500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-49300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-52900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-43200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-31600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-28600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-29100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-37600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-65800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-42400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-24500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-20500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-16000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-64900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-16100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-11200</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-200</v>
-      </c>
-      <c r="T24" s="3">
-        <v>-100</v>
       </c>
       <c r="U24" s="3">
         <v>-100</v>
@@ -1873,10 +1919,10 @@
         <v>-100</v>
       </c>
       <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>3</v>
@@ -1884,8 +1930,11 @@
       <c r="Z24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,156 +2007,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-25200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-36300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-30500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-41600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-49500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-53700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-43800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-37500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-31800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-27100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-37200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-65800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-42600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-24400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-20300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-16000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-64800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-16000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-11200</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-25200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-36300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-30500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-41600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-49500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-53700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-43800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-37500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-31800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-27100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-37200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-65800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-42600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-24400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-20300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-16000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-64800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-16000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-11200</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2180,8 +2238,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2218,8 +2279,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
@@ -2236,12 +2297,12 @@
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V29" s="3">
         <v>-100</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2315,11 @@
       <c r="Z29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2392,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,25 +2469,28 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -2437,38 +2507,38 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-200</v>
       </c>
       <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
+      <c r="X32" s="3">
+        <v>-200</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
@@ -2476,82 +2546,88 @@
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-25200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-36300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-30500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-41600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-49500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-53700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-43800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-37500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-31800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-27100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-37200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-65800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-42600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-24400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-20300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-16000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-64900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-16000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-11200</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,161 +2700,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-25200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-36300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-30500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-41600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-49500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-53700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-43800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-37500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-31800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-27100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-37200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-65800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-42600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-24400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-20300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-16000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-64900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-16000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-11200</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2890,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,65 +2919,66 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E41" s="3">
         <v>63300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>122500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>190200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>168000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>119900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>114000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>85900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>123500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>106300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>46900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>68800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>82800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>82600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>72000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>69700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>285500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>221100</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,62 +2994,65 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E42" s="3">
         <v>82300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>59700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>10000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>57900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>144200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>209400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>278500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>128900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>97900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>186500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>189900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>204600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>243900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>235300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>268200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>73700</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,26 +3071,29 @@
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E43" s="3">
         <v>29400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3016,8 +3109,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -3055,29 +3148,32 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E44" s="3">
         <v>13200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3189,8 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -3129,65 +3225,68 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E45" s="3">
         <v>10500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1300</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3203,65 +3302,68 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>179900</v>
+      </c>
+      <c r="E46" s="3">
         <v>198800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>196400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>217500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>244800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>275600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>333200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>378400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>264500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>213100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>241600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>268300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>296500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>335000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>313800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>341500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>363900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>222500</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3277,8 +3379,11 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3351,65 +3456,68 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E48" s="3">
         <v>7300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3425,29 +3533,32 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E49" s="3">
         <v>19000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>20000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3463,8 +3574,8 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3499,8 +3610,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3687,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,65 +3764,68 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E52" s="3">
         <v>5900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>5800</v>
       </c>
       <c r="H52" s="3">
         <v>5800</v>
       </c>
       <c r="I52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J52" s="3">
         <v>5600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2200</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3721,8 +3841,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,65 +3918,68 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>210600</v>
+      </c>
+      <c r="E54" s="3">
         <v>231000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>232800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>252900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>279200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>311200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>349500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>384400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>271400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>226100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>254500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>281800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>308100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>346200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>322000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>347100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>365100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>224800</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +3995,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4026,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,65 +4055,66 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2800</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3999,8 +4130,11 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4073,65 +4207,68 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E59" s="3">
         <v>47000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>43000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>32700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>31300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>20800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>30000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>31600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>23400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>22600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16500</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4147,65 +4284,68 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E60" s="3">
         <v>50400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>44800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>38800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>35500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>24900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>27600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>30200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>36900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>42600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>28000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19300</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4221,8 +4361,11 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4295,64 +4438,67 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E62" s="3">
         <v>14400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>100</v>
-      </c>
-      <c r="R62" s="3">
-        <v>200</v>
       </c>
       <c r="S62" s="3">
         <v>200</v>
       </c>
       <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
@@ -4369,8 +4515,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4592,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4517,8 +4669,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,65 +4746,68 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E66" s="3">
         <v>64700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>47800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>38800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>43400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>40500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>37500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>39600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>42700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>28200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>23300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19300</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4665,8 +4823,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4854,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4929,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5006,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4895,11 +5063,11 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>310600</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4915,8 +5083,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,65 +5160,68 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-720600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-700600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-675400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-639100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-608500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-567000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-517500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-463800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-420000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-382500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-356100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-324300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-297200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-260000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-194200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-151600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-127200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-107000</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5063,8 +5237,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5314,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5391,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,65 +5468,68 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>153500</v>
+      </c>
+      <c r="E76" s="3">
         <v>166200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>185000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>214000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>235800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>270700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>311900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>358500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>250400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>205800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>225400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>251900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>275200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>306500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>279300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>318900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>341800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-105100</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5359,8 +5545,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,161 +5622,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-25200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-36300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-30500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-41600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-49500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-53700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-43800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-37500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-31800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-27100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-37200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-65800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-42600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-24400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-20300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-16000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-64900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-16000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-11200</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,8 +5812,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5632,10 +5831,10 @@
         <v>700</v>
       </c>
       <c r="H83" s="3">
+        <v>700</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>600</v>
       </c>
       <c r="J83" s="3">
         <v>600</v>
@@ -5650,7 +5849,7 @@
         <v>600</v>
       </c>
       <c r="N83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O83" s="3">
         <v>500</v>
@@ -5659,11 +5858,11 @@
         <v>500</v>
       </c>
       <c r="Q83" s="3">
+        <v>500</v>
+      </c>
+      <c r="R83" s="3">
         <v>300</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
@@ -5679,8 +5878,8 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
+      <c r="X83" s="3">
+        <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
@@ -5688,8 +5887,11 @@
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5964,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6041,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6118,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6195,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,82 +6272,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-36800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-38800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-40100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-41200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-34300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-29200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-31800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-24200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-29300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-41700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-63300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-27600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-20500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-17900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-15000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-50200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-10900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-10200</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,19 +6380,20 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -6184,49 +6405,49 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-100</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
       </c>
       <c r="V91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
@@ -6234,8 +6455,11 @@
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6532,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,73 +6609,76 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-50000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>47800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>86000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>44800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>68600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-149700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-31200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>88800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>15200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>41400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>29700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-194900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-73900</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-100</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
@@ -6456,8 +6686,11 @@
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,8 +6717,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6558,8 +6792,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6869,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6946,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,73 +7023,76 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>146400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>77600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>83200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>156400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>190800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>39900</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
+      <c r="X100" s="3">
+        <v>0</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
@@ -6854,8 +7100,11 @@
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6928,78 +7177,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-59100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-67700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>22000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>48100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>28200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-37600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>59400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-21900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>10700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-216100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>64600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>175800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-10400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-11000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-10200</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,135 +665,139 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E8" s="3">
         <v>27000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>32200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7700</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -809,8 +813,8 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -848,29 +852,32 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E9" s="3">
         <v>5000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2500</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,29 +932,32 @@
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E10" s="3">
         <v>22000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>28000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5200</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1002,8 +1012,11 @@
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1031,85 +1044,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E12" s="3">
         <v>13800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>19200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>28700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>37400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>31400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>22900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>22000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>30800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>59300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>36100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>20600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>17200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>12600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>56400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>14000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>9300</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,8 +1202,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1223,8 +1243,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1235,8 +1255,8 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1262,8 +1282,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1339,8 +1362,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,106 +1391,110 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E17" s="3">
         <v>46300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>55500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>54900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>42800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>48300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>49300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>52900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>31900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>32600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>30400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>39300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>67600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>44100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>26200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>16300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>65400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>16200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11400</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-19300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-23300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-36200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-30700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-40600</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1480,47 +1510,50 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-30400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-39300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-67600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-44100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-26200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-21500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-16300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-65400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-16200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-11400</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1548,28 +1581,29 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1586,38 +1620,38 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
-      </c>
-      <c r="W20" s="3">
-        <v>200</v>
       </c>
       <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
+      <c r="Y20" s="3">
+        <v>200</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>3</v>
@@ -1625,29 +1659,32 @@
       <c r="AA20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-18600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-22600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-35400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-30000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-39800</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1663,47 +1700,50 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-28500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-37100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-65400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-42200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-24500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-20400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-16000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-64800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-16100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-11200</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1779,141 +1819,147 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-36100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-30700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-40500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-49300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-52900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-43200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-31600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-28600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-31500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-29100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-65800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-42400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-24500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-20500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-16000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-64900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-16100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-11200</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-177400</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-200</v>
-      </c>
-      <c r="U24" s="3">
-        <v>-100</v>
       </c>
       <c r="V24" s="3">
         <v>-100</v>
@@ -1922,10 +1968,10 @@
         <v>-100</v>
       </c>
       <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>3</v>
@@ -1933,8 +1979,11 @@
       <c r="AA24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2010,162 +2059,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>224100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-20000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-25200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-36300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-30500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-41600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-49500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-53700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-43800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-37500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-31800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-27100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-37200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-65800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-42600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-24400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-20300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-16000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-64800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-16000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-11200</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>224100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-25200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-36300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-30500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-41600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-49500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-53700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-43800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-37500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-31800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-27100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-37200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-65800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-42600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-24400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-20300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-16000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-64800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-16000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-11200</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2241,8 +2299,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2282,8 +2343,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
@@ -2300,12 +2361,12 @@
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W29" s="3">
         <v>-100</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,8 +2379,11 @@
       <c r="AA29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2459,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2472,28 +2539,31 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -2510,38 +2580,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-200</v>
       </c>
       <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
+      <c r="Y32" s="3">
+        <v>-200</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>3</v>
@@ -2549,85 +2619,91 @@
       <c r="AA32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>224100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-25200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-36300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-30500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-41600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-49500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-53700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-43800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-37500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-31800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-27100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-37200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-65800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-42600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-24400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-20300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-16000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-64900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-16000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-11200</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,167 +2779,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>224100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-25200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-36300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-30500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-41600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-49500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-53700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-43800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-37500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-31800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-27100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-37200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-65800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-42600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-24400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-20300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-16000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-64900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-16000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-11200</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +2976,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2920,68 +3006,69 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>175800</v>
+      </c>
+      <c r="E41" s="3">
         <v>94300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>63300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>122500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>190200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>168000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>119900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>114000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>85900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>123500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>106300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>46900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>68800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>82800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>82600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>72000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>69700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>285500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>221100</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2997,65 +3084,68 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E42" s="3">
         <v>43900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>82300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>59700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>10000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>57900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>144200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>209400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>278500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>128900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>97900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>186500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>189900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>204600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>243900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>235300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>268200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>73700</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3074,29 +3164,32 @@
       <c r="AA42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E43" s="3">
         <v>7800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>29400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2600</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3112,8 +3205,8 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3151,32 +3244,35 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E44" s="3">
         <v>19900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2200</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3192,8 +3288,8 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -3228,68 +3324,71 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E45" s="3">
         <v>14000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1300</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3305,68 +3404,71 @@
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>241800</v>
+      </c>
+      <c r="E46" s="3">
         <v>179900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>198800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>196400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>217500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>244800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>275600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>333200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>378400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>264500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>213100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>241600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>268300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>296500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>335000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>313800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>341500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>363900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>222500</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3382,8 +3484,11 @@
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3459,68 +3564,71 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E48" s="3">
         <v>6200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>100</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3536,32 +3644,35 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E49" s="3">
         <v>18800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3577,8 +3688,8 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3613,8 +3724,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3804,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,68 +3884,71 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>191500</v>
+      </c>
+      <c r="E52" s="3">
         <v>5700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5800</v>
       </c>
       <c r="I52" s="3">
         <v>5800</v>
       </c>
       <c r="J52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K52" s="3">
         <v>5600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2200</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3844,8 +3964,11 @@
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,68 +4044,71 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>460000</v>
+      </c>
+      <c r="E54" s="3">
         <v>210600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>231000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>232800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>252900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>279200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>311200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>349500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>384400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>271400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>226100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>254500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>281800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>308100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>346200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>322000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>347100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>365100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>224800</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3998,8 +4124,11 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4156,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,68 +4186,69 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2800</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4133,8 +4264,11 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4210,68 +4344,71 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E59" s="3">
         <v>41000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>34600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>31300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>20800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>30000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>31600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>23400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>22600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>16500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4287,68 +4424,71 @@
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E60" s="3">
         <v>43500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>50400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>44800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>35500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>31800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>27800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>27600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>30200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>36900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>42600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>28000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>23100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>19300</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4364,8 +4504,11 @@
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4441,67 +4584,70 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E62" s="3">
         <v>13500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>100</v>
-      </c>
-      <c r="S62" s="3">
-        <v>200</v>
       </c>
       <c r="T62" s="3">
         <v>200</v>
       </c>
       <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
@@ -4518,8 +4664,11 @@
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4744,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4672,8 +4824,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,68 +4904,71 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E66" s="3">
         <v>57100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>64700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>47800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>38800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>40500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>37500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>39600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>42700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>28200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>23300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19300</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +4984,11 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5016,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5094,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5174,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5066,11 +5234,11 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>310600</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -5086,8 +5254,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,68 +5334,71 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-496500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-720600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-700600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-675400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-639100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-608500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-567000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-517500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-463800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-420000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-382500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-356100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-324300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-297200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-260000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-194200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-151600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-127200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-107000</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5240,8 +5414,11 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5494,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5574,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,68 +5654,71 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>384000</v>
+      </c>
+      <c r="E76" s="3">
         <v>153500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>166200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>185000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>214000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>235800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>270700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>311900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>358500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>250400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>205800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>225400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>251900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>275200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>306500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>279300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>318900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>341800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-105100</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5548,8 +5734,11 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,167 +5814,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>224100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-25200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-36300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-30500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-41600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-49500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-53700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-43800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-37500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-31800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-27100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-37200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-65800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-42600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-24400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-20300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-16000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-64900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-16000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-11200</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,13 +6011,14 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>700</v>
@@ -5834,10 +6033,10 @@
         <v>700</v>
       </c>
       <c r="I83" s="3">
+        <v>700</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>600</v>
       </c>
       <c r="K83" s="3">
         <v>600</v>
@@ -5852,7 +6051,7 @@
         <v>600</v>
       </c>
       <c r="O83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P83" s="3">
         <v>500</v>
@@ -5861,11 +6060,11 @@
         <v>500</v>
       </c>
       <c r="R83" s="3">
+        <v>500</v>
+      </c>
+      <c r="S83" s="3">
         <v>300</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
@@ -5881,8 +6080,8 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
+      <c r="Y83" s="3">
+        <v>0</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>3</v>
@@ -5890,8 +6089,11 @@
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6169,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6249,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6329,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6409,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,85 +6489,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-36800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-18900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-28500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-38800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-40100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-41200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-34300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-29200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-31800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-24200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-29300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-41700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-63300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-27600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-20500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-17900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-15000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-50200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-10900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-10200</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,22 +6601,23 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -6408,49 +6629,49 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
       </c>
       <c r="W91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>3</v>
@@ -6458,8 +6679,11 @@
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6759,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,76 +6839,79 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E94" s="3">
         <v>38300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-50000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>47800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>86000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>44800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>68600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-149700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-31200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>88800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>15200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>41400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>29700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-194900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-73900</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-100</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
       </c>
       <c r="W94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
+      <c r="Y94" s="3">
+        <v>0</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>3</v>
@@ -6689,8 +6919,11 @@
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,8 +6951,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6795,8 +7029,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7109,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7189,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,76 +7269,79 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>146400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>77600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>83200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>156400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>190800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>39900</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
+      <c r="Y100" s="3">
+        <v>0</v>
       </c>
       <c r="Z100" s="3" t="s">
         <v>3</v>
@@ -7103,8 +7349,11 @@
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7180,81 +7429,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E102" s="3">
         <v>31000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-59100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-67700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>22000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>48100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>28200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-37600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>59400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-21900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-14000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>10700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-216100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>64600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>175800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-10400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-11000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-10200</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,145 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AB7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E8" s="3">
         <v>99100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>27000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>32200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7700</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -816,8 +819,8 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -855,32 +858,35 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E9" s="3">
         <v>6900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2500</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -935,32 +941,35 @@
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E10" s="3">
         <v>92200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>28000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5200</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1015,8 +1024,11 @@
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1045,88 +1057,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E12" s="3">
         <v>16500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>19200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>23900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>28700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>37400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>31400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>22900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>22000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>30800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>59300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>36100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>20600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>17200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>12600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>56400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>14000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>9300</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1205,8 +1221,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1246,8 +1265,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
@@ -1258,8 +1277,8 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1285,8 +1304,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1365,8 +1387,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1392,112 +1417,116 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E17" s="3">
         <v>52700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>46300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>55500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>54900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>42800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>48300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>49300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>52900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>31900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>32600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>30400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>39300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>67600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>44100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>26200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>21500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>16300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>65400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>16200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11400</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E18" s="3">
         <v>46400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-19300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-23300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-36200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-30700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-40600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1513,47 +1542,50 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-30400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-39300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-67600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-44100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-26200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-21500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-16300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-65400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-16200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-11400</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,31 +1614,32 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1623,38 +1656,38 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
-      </c>
-      <c r="X20" s="3">
-        <v>200</v>
       </c>
       <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
+      <c r="Z20" s="3">
+        <v>200</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>3</v>
@@ -1662,32 +1695,35 @@
       <c r="AB20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E21" s="3">
         <v>47200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-22600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-35400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-30000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-39800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,47 +1739,50 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-28500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-37100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-65400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-42200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-24500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-20400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-16000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-64800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-16100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1822,147 +1861,153 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E23" s="3">
         <v>46700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-36100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-30700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-40500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-49300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-52900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-43200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-28600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-31500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-29100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-37600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-65800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-42400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-24500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-20500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-16000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-64900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-16100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-177400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-400</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-200</v>
-      </c>
-      <c r="V24" s="3">
-        <v>-100</v>
       </c>
       <c r="W24" s="3">
         <v>-100</v>
@@ -1971,10 +2016,10 @@
         <v>-100</v>
       </c>
       <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>3</v>
@@ -1982,8 +2027,11 @@
       <c r="AB24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2062,168 +2110,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E26" s="3">
         <v>224100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-25200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-36300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-30500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-41600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-49500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-53700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-43800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-37500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-26400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-31800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-37200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-65800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-42600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-24400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-20300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-16000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-64800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E27" s="3">
         <v>224100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-25200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-36300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-30500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-41600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-49500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-53700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-43800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-37500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-31800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-37200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-65800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-42600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-24400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-20300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-16000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-64800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2302,8 +2359,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2346,8 +2406,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
@@ -2364,12 +2424,12 @@
       <c r="V29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X29" s="3">
         <v>-100</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2382,8 +2442,11 @@
       <c r="AB29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2462,8 +2525,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2542,31 +2608,34 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -2583,38 +2652,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-200</v>
       </c>
       <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
+      <c r="Z32" s="3">
+        <v>-200</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>3</v>
@@ -2622,88 +2691,94 @@
       <c r="AB32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E33" s="3">
         <v>224100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-25200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-36300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-30500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-41600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-49500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-53700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-43800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-37500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-31800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-37200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-65800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-42600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-24400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-20300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-16000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-64900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2782,173 +2857,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E35" s="3">
         <v>224100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-25200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-36300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-30500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-41600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-49500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-53700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-43800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-37500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-31800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-37200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-65800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-42600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-24400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-20300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-16000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-64900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AB38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2977,8 +3061,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3007,71 +3092,72 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>122700</v>
+      </c>
+      <c r="E41" s="3">
         <v>175800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>94300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>63300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>122500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>190200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>168000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>119900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>114000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>85900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>123500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>106300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>46900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>68800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>82800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>82600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>72000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>69700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>285500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>221100</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3087,68 +3173,71 @@
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>67900</v>
+      </c>
+      <c r="E42" s="3">
         <v>25000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>43900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>82300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>59700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>10000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>57900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>144200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>209400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>278500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>128900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>97900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>186500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>189900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>204600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>243900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>235300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>268200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>73700</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3167,32 +3256,35 @@
       <c r="AB42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E43" s="3">
         <v>11200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>29400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3208,8 +3300,8 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -3247,35 +3339,38 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E44" s="3">
         <v>14600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>19900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3291,8 +3386,8 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -3327,71 +3422,74 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E45" s="3">
         <v>15300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1300</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3407,71 +3505,74 @@
       <c r="AB45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>243100</v>
+      </c>
+      <c r="E46" s="3">
         <v>241800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>179900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>198800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>196400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>217500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>244800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>275600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>333200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>378400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>264500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>213100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>241600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>268300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>296500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>335000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>313800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>341500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>363900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>222500</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3487,8 +3588,11 @@
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3567,71 +3671,74 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>100</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3647,35 +3754,38 @@
       <c r="AB48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E49" s="3">
         <v>18500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>19800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3691,8 +3801,8 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3727,8 +3837,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3807,8 +3920,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3887,71 +4003,74 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>191300</v>
+      </c>
+      <c r="E52" s="3">
         <v>191500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>5800</v>
       </c>
       <c r="J52" s="3">
         <v>5800</v>
       </c>
       <c r="K52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="L52" s="3">
         <v>5600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2200</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3967,8 +4086,11 @@
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4047,71 +4169,74 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>459700</v>
+      </c>
+      <c r="E54" s="3">
         <v>460000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>210600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>231000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>232800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>252900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>279200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>311200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>349500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>384400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>271400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>226100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>254500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>281800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>308100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>346200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>322000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>347100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>365100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>224800</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4127,8 +4252,11 @@
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4157,8 +4285,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4187,71 +4316,72 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2800</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4267,8 +4397,11 @@
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4347,71 +4480,74 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E59" s="3">
         <v>55000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>41000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>43000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>32800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>32700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>31300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>20800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>30000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>31600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>23400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>22600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>16500</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4427,71 +4563,74 @@
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E60" s="3">
         <v>56500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>43500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>50400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>44800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>35500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>27800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>27600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>30200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>36900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>42600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>28000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>23100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19300</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4507,8 +4646,11 @@
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4587,70 +4729,73 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E62" s="3">
         <v>19500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>100</v>
-      </c>
-      <c r="T62" s="3">
-        <v>200</v>
       </c>
       <c r="U62" s="3">
         <v>200</v>
       </c>
       <c r="V62" s="3">
-        <v>0</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>3</v>
@@ -4667,8 +4812,11 @@
       <c r="AB62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,8 +4895,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4827,8 +4978,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4907,71 +5061,74 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E66" s="3">
         <v>75900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>57100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>64700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>47800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>38800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>40500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>29900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>32900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>39600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>42700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>28200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>23300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19300</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4987,8 +5144,11 @@
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5017,8 +5177,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5097,8 +5258,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5177,8 +5341,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5237,11 +5404,11 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>310600</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
       <c r="X70" s="3">
         <v>0</v>
       </c>
@@ -5257,8 +5424,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5337,71 +5507,74 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-492000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-496500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-720600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-700600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-675400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-639100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-608500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-567000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-517500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-463800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-420000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-382500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-356100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-324300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-297200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-260000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-194200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-151600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-127200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-107000</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5417,8 +5590,11 @@
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5497,8 +5673,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5577,8 +5756,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5657,71 +5839,74 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>396100</v>
+      </c>
+      <c r="E76" s="3">
         <v>384000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>153500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>166200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>185000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>214000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>235800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>270700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>311900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>358500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>250400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>205800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>225400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>251900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>275200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>306500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>279300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>318900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>341800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-105100</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5737,8 +5922,11 @@
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5817,173 +6005,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AB80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E81" s="3">
         <v>224100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-25200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-36300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-30500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-41600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-49500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-53700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-43800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-37500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-31800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-37200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-65800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-42600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-24400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-20300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-16000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-64900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6012,16 +6209,17 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>700</v>
       </c>
       <c r="F83" s="3">
         <v>700</v>
@@ -6036,10 +6234,10 @@
         <v>700</v>
       </c>
       <c r="J83" s="3">
+        <v>700</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>600</v>
       </c>
       <c r="L83" s="3">
         <v>600</v>
@@ -6054,7 +6252,7 @@
         <v>600</v>
       </c>
       <c r="P83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q83" s="3">
         <v>500</v>
@@ -6063,11 +6261,11 @@
         <v>500</v>
       </c>
       <c r="S83" s="3">
+        <v>500</v>
+      </c>
+      <c r="T83" s="3">
         <v>300</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
@@ -6083,8 +6281,8 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
+      <c r="Z83" s="3">
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>3</v>
@@ -6092,8 +6290,11 @@
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6172,8 +6373,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6252,8 +6456,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6332,8 +6539,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6412,8 +6622,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6492,88 +6705,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E89" s="3">
         <v>62100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-36800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-28500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-38800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-40100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-41200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-34300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-29200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-31800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-24200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-41700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-63300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-27600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-20500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-17900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-15000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-50200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-10900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-10200</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6602,25 +6821,26 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -6632,49 +6852,49 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-100</v>
       </c>
       <c r="W91" s="3">
         <v>-100</v>
       </c>
       <c r="X91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>3</v>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>3</v>
@@ -6682,8 +6902,11 @@
       <c r="AB91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6762,8 +6985,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6842,79 +7068,82 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="E94" s="3">
         <v>19000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>38300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-50000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>47800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>86000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>44800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>68600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-149700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-31200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>88800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>15200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>41400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>29700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-194900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-73900</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-100</v>
       </c>
       <c r="W94" s="3">
         <v>-100</v>
       </c>
       <c r="X94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>3</v>
@@ -6922,8 +7151,11 @@
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6952,8 +7184,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7032,8 +7265,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7112,8 +7348,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7192,8 +7431,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7272,79 +7514,82 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>146400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>77600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>83200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>156400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>190800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>39900</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
+      <c r="Z100" s="3">
+        <v>0</v>
       </c>
       <c r="AA100" s="3" t="s">
         <v>3</v>
@@ -7352,8 +7597,11 @@
       <c r="AB100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7432,84 +7680,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E102" s="3">
         <v>81500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>31000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-59100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-67700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>22000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>48100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>28200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-37600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>59400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-21900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>10700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-216100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>64600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>175800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-10400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-10200</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
   <si>
     <t>KNSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,148 +665,152 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AC7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E8" s="3">
         <v>61900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>99100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>27000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>32200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7700</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,8 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -861,35 +865,38 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -944,35 +951,38 @@
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E10" s="3">
         <v>55200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>92200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>22000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>28000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1037,11 @@
       <c r="AC10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,91 +1071,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E12" s="3">
         <v>14400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>16500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>23900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>37400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>31400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>22300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>22900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>22000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>30800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>59300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>36100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>20600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>17200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>12600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>56400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>14000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>9300</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1224,8 +1241,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1268,8 +1288,8 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
@@ -1280,8 +1300,8 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1307,8 +1327,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1390,8 +1413,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1418,118 +1444,122 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E17" s="3">
         <v>55800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>52700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>46300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>55500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>54900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>42800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>48300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>49300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>52900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>43200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>31900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>29400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>32600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>30400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>39300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>67600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>44100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>26200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>21500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>16300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>65400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>16200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>11400</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E18" s="3">
         <v>6100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>46400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-23300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-36200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-30700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-40600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1545,47 +1575,50 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>-30400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-39300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-67600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-44100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-26200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-21500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-16300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-65400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-16200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-11400</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1615,34 +1648,35 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1659,38 +1693,38 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>200</v>
       </c>
       <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
+      <c r="AA20" s="3">
+        <v>200</v>
       </c>
       <c r="AB20" s="3" t="s">
         <v>3</v>
@@ -1698,35 +1732,38 @@
       <c r="AC20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E21" s="3">
         <v>7400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>47200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-22600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-35400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-30000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-39800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,47 +1779,50 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-28500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-37100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-65400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-42200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-24500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-20400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-16000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-64800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-16100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-11200</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1864,153 +1904,159 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E23" s="3">
         <v>6800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>46700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-36100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-30700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-40500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-49300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-52900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-43200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-31600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-28600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-29100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-37600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-65800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-42400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-24500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-20500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-16000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-64900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-16100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-11200</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E24" s="3">
         <v>2400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-177400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-200</v>
-      </c>
-      <c r="W24" s="3">
-        <v>-100</v>
       </c>
       <c r="X24" s="3">
         <v>-100</v>
@@ -2019,10 +2065,10 @@
         <v>-100</v>
       </c>
       <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
       </c>
       <c r="AB24" s="3" t="s">
         <v>3</v>
@@ -2030,8 +2076,11 @@
       <c r="AC24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2113,174 +2162,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E26" s="3">
         <v>4500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>224100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-25200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-36300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-30500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-41600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-49500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-53700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-43800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-37500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-26400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-31800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-27100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-37200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-65800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-42600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-24400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-20300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-16000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-64800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-11200</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E27" s="3">
         <v>4500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>224100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-25200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-36300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-30500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-41600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-49500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-53700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-43800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-37500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-26400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-31800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-27100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-37200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-65800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-42600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-24400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-20300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-16000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-64800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-11200</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2362,8 +2420,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2409,8 +2470,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>3</v>
@@ -2427,12 +2488,12 @@
       <c r="W29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-100</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2445,8 +2506,11 @@
       <c r="AC29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2528,8 +2592,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2611,34 +2678,37 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -2655,38 +2725,38 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-200</v>
       </c>
       <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
+      <c r="AA32" s="3">
+        <v>-200</v>
       </c>
       <c r="AB32" s="3" t="s">
         <v>3</v>
@@ -2694,91 +2764,97 @@
       <c r="AC32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E33" s="3">
         <v>4500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>224100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-25200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-36300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-30500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-41600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-49500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-53700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-43800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-37500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-26400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-31800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-27100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-37200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-65800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-42600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-24400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-20300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-16000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-64900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-11200</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2860,179 +2936,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E35" s="3">
         <v>4500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>224100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-25200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-36300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-30500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-41600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-49500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-53700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-43800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-37500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-26400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-31800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-27100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-37200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-65800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-42600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-24400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-20300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-16000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-64900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-11200</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AC38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3062,8 +3147,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3093,74 +3179,75 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E41" s="3">
         <v>122700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>175800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>94300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>63300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>122500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>190200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>168000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>119900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>114000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>85900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>123500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>106300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>46900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>68800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>82800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>82600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>72000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>69700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>285500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>221100</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,71 +3263,74 @@
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E42" s="3">
         <v>67900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>25000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>43900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>82300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>59700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>10000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>57900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>144200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>209400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>278500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>128900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>97900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>186500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>189900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>204600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>243900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>235300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>268200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>73700</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3259,35 +3349,38 @@
       <c r="AC42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E43" s="3">
         <v>20300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>29400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3303,8 +3396,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -3342,38 +3435,41 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E44" s="3">
         <v>21600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>14600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>19900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3389,8 +3485,8 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -3425,74 +3521,77 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E45" s="3">
         <v>10500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1300</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,74 +3607,77 @@
       <c r="AC45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>231500</v>
+      </c>
+      <c r="E46" s="3">
         <v>243100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>241800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>179900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>198800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>196400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>217500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>244800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>275600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>333200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>378400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>264500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>213100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>241600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>268300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>296500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>335000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>313800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>341500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>363900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>222500</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3591,8 +3693,11 @@
       <c r="AC46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3674,74 +3779,77 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E48" s="3">
         <v>7000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>100</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3757,38 +3865,41 @@
       <c r="AC48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E49" s="3">
         <v>18300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>19500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>19800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3804,8 +3915,8 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3840,8 +3951,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3923,8 +4037,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4006,74 +4123,77 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>186700</v>
+      </c>
+      <c r="E52" s="3">
         <v>191300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>191500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>5800</v>
       </c>
       <c r="K52" s="3">
         <v>5800</v>
       </c>
       <c r="L52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="M52" s="3">
         <v>5600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2200</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4089,8 +4209,11 @@
       <c r="AC52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4172,74 +4295,77 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>442900</v>
+      </c>
+      <c r="E54" s="3">
         <v>459700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>460000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>210600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>231000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>232800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>252900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>279200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>311200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>349500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>384400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>271400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>226100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>254500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>281800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>308100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>346200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>322000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>347100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>365100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>224800</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4255,8 +4381,11 @@
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4286,8 +4415,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4317,74 +4447,75 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>7900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2800</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4400,8 +4531,11 @@
       <c r="AC57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4483,74 +4617,77 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E59" s="3">
         <v>39200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>55000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>41000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>47000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>43000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>20800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>30000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>31600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>23400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>22600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>16500</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4566,74 +4703,77 @@
       <c r="AC59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E60" s="3">
         <v>47100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>56500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>43500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>50400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>44800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>34400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>38800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>35500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>27800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>27600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>30200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>36900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>42600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>28000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>23100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19300</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4649,8 +4789,11 @@
       <c r="AC60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4732,73 +4875,76 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E62" s="3">
         <v>16500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>100</v>
-      </c>
-      <c r="U62" s="3">
-        <v>200</v>
       </c>
       <c r="V62" s="3">
         <v>200</v>
       </c>
       <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>3</v>
@@ -4815,8 +4961,11 @@
       <c r="AC62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4898,8 +5047,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4981,8 +5133,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5064,74 +5219,77 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E66" s="3">
         <v>63500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>75900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>57100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>64700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>47800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>38800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>43400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>40500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>29100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>29900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>32900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>39600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>42700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>28200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>23300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>19300</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5147,8 +5305,11 @@
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5178,8 +5339,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5261,8 +5423,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5344,8 +5509,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5407,11 +5575,11 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>310600</v>
       </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
       <c r="Y70" s="3">
         <v>0</v>
       </c>
@@ -5427,8 +5595,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5510,74 +5681,77 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-504300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-492000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-496500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-720600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-700600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-675400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-639100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-608500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-567000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-517500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-463800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-420000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-382500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-356100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-324300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-297200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-260000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-194200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-151600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-127200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-107000</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5593,8 +5767,11 @@
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5676,8 +5853,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5759,8 +5939,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5842,74 +6025,77 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>390100</v>
+      </c>
+      <c r="E76" s="3">
         <v>396100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>384000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>153500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>166200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>185000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>214000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>235800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>270700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>311900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>358500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>250400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>205800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>225400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>251900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>275200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>306500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>279300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>318900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>341800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-105100</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5925,8 +6111,11 @@
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6008,179 +6197,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AC80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E81" s="3">
         <v>4500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>224100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-25200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-36300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-30500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-41600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-49500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-53700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-43800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-37500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-26400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-31800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-27100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-37200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-65800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-42600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-24400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-20300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-16000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-64900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-11200</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6210,8 +6408,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6219,10 +6418,10 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
+        <v>600</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>700</v>
       </c>
       <c r="G83" s="3">
         <v>700</v>
@@ -6237,10 +6436,10 @@
         <v>700</v>
       </c>
       <c r="K83" s="3">
+        <v>700</v>
+      </c>
+      <c r="L83" s="3">
         <v>300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>600</v>
       </c>
       <c r="M83" s="3">
         <v>600</v>
@@ -6255,7 +6454,7 @@
         <v>600</v>
       </c>
       <c r="Q83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R83" s="3">
         <v>500</v>
@@ -6264,11 +6463,11 @@
         <v>500</v>
       </c>
       <c r="T83" s="3">
+        <v>500</v>
+      </c>
+      <c r="U83" s="3">
         <v>300</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
@@ -6284,8 +6483,8 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>3</v>
+      <c r="AA83" s="3">
+        <v>0</v>
       </c>
       <c r="AB83" s="3" t="s">
         <v>3</v>
@@ -6293,8 +6492,11 @@
       <c r="AC83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6376,8 +6578,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6459,8 +6664,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6542,8 +6750,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6625,8 +6836,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6708,91 +6922,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>62100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-36800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-28500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-38800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-40100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-41200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-34300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-29200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-31800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-29300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-41700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-63300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-27600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-20500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-17900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-15000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-50200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-10900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-10200</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6822,8 +7042,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6833,17 +7054,17 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -6855,49 +7076,49 @@
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-100</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
       </c>
       <c r="Y91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>3</v>
+      <c r="AA91" s="3">
+        <v>0</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>3</v>
@@ -6905,8 +7126,11 @@
       <c r="AC91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6988,8 +7212,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7071,82 +7298,85 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-42700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>19000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>38300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-50000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>47800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>86000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>44800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>68600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-149700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-31200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>88800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>15200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>41400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>29700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-194900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-73900</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-100</v>
       </c>
       <c r="X94" s="3">
         <v>-100</v>
       </c>
       <c r="Y94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>3</v>
+      <c r="AA94" s="3">
+        <v>0</v>
       </c>
       <c r="AB94" s="3" t="s">
         <v>3</v>
@@ -7154,8 +7384,11 @@
       <c r="AC94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7185,8 +7418,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7268,8 +7502,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7351,8 +7588,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7434,8 +7674,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7517,82 +7760,85 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>146400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>77600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>83200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>156400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>190800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>39900</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>3</v>
+      <c r="AA100" s="3">
+        <v>0</v>
       </c>
       <c r="AB100" s="3" t="s">
         <v>3</v>
@@ -7600,8 +7846,11 @@
       <c r="AC100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7683,87 +7932,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-53000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>81500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>31000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-59100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-67700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>22000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>48100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>28200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-37600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>59400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-14000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>10700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-216100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>64600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>175800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-10400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-11000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-10200</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,159 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E8" s="3">
         <v>48300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>61900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>99100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>27000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>32200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7700</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -829,8 +833,8 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -868,38 +872,41 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E9" s="3">
         <v>7000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -954,38 +961,41 @@
       <c r="AD9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E10" s="3">
         <v>41300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>55200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>92200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>22000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>28000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5200</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1040,8 +1050,11 @@
       <c r="AD10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1072,94 +1085,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E12" s="3">
         <v>15200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>16500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>28700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>37400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>31400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>22300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>20900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>22900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>22000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>30800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>59300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>36100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>20600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>17200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>12600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>56400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>14000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>9300</v>
       </c>
-      <c r="AB12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1244,8 +1261,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1291,8 +1311,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
@@ -1303,8 +1323,8 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1330,8 +1350,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1416,8 +1439,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1445,124 +1471,128 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E17" s="3">
         <v>59500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>55800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>52700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>46300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>55500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>54900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>42800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>48300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>49300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>52900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>43200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>31900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>29400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>32600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>30400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>39300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>67600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>44100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>26200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>21500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>16300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>65400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>16200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>11400</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>46400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-23300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-36200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-30700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-40600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1578,47 +1608,50 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
         <v>-30400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-39300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-67600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-44100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-26200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-21500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-16300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-65400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-16200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-11400</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1649,8 +1682,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1658,28 +1692,28 @@
         <v>1900</v>
       </c>
       <c r="E20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1696,38 +1730,38 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
         <v>1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>200</v>
       </c>
       <c r="AA20" s="3">
         <v>200</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>3</v>
+      <c r="AB20" s="3">
+        <v>200</v>
       </c>
       <c r="AC20" s="3" t="s">
         <v>3</v>
@@ -1735,38 +1769,41 @@
       <c r="AD20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-8800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>47200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-22600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-35400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-30000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-39800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1782,47 +1819,50 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>-28500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-37100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-65400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-42200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-24500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-20400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-64800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-16100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-11200</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1907,159 +1947,165 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>46700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-36100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-30700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-40500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-49300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-52900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-43200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-31600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-28600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-31500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-29100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-37600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-65800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-42400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-24500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-20500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-64900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-16100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-11200</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E24" s="3">
         <v>2900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-177400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-400</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-200</v>
-      </c>
-      <c r="X24" s="3">
-        <v>-100</v>
       </c>
       <c r="Y24" s="3">
         <v>-100</v>
@@ -2068,10 +2114,10 @@
         <v>-100</v>
       </c>
       <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
       </c>
       <c r="AC24" s="3" t="s">
         <v>3</v>
@@ -2079,8 +2125,11 @@
       <c r="AD24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2165,180 +2214,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>224100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-25200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-36300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-30500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-41600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-49500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-53700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-43800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-37500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-31800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-27100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-37200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-65800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-42600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-24400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-20300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-64800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-16000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-11200</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>224100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-25200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-36300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-30500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-41600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-49500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-53700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-43800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-37500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-31800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-27100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-37200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-65800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-42600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-24400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-20300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-64800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-16000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-11200</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2423,8 +2481,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2473,8 +2534,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>3</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
@@ -2491,12 +2552,12 @@
       <c r="X29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-100</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,8 +2570,11 @@
       <c r="AD29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2595,8 +2659,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2681,8 +2748,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2690,28 +2760,28 @@
         <v>-1900</v>
       </c>
       <c r="E32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -2728,38 +2798,38 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>-200</v>
       </c>
       <c r="AA32" s="3">
         <v>-200</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>3</v>
+      <c r="AB32" s="3">
+        <v>-200</v>
       </c>
       <c r="AC32" s="3" t="s">
         <v>3</v>
@@ -2767,94 +2837,100 @@
       <c r="AD32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>224100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-25200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-36300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-30500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-41600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-49500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-53700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-43800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-37500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-31800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-27100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-37200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-65800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-42600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-24400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-20300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-64900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-16000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-11200</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2939,185 +3015,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>224100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-25200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-36300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-30500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-41600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-49500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-53700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-43800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-37500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-31800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-27100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-37200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-65800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-42600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-24400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-20300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-64900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-16000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-11200</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AD38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3148,8 +3233,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3180,77 +3266,78 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>112600</v>
+      </c>
+      <c r="E41" s="3">
         <v>80600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>122700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>175800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>94300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>63300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>122500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>190200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>168000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>119900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>114000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>85900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>123500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>106300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>46900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>68800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>82800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>82600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>72000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>69700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>285500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>221100</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3266,74 +3353,77 @@
       <c r="AD41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E42" s="3">
         <v>106900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>67900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>25000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>43900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>82300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>59700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>10000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>57900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>144200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>209400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>278500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>128900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>97900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>186500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>189900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>204600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>243900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>235300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>268200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>73700</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3352,38 +3442,41 @@
       <c r="AD42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E43" s="3">
         <v>7400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>20300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>29400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3399,8 +3492,8 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3438,41 +3531,44 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E44" s="3">
         <v>23400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>21600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>14600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>19900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3488,8 +3584,8 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -3524,77 +3620,80 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E45" s="3">
         <v>13200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1300</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3610,77 +3709,80 @@
       <c r="AD45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E46" s="3">
         <v>231500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>243100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>241800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>179900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>198800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>196400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>217500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>244800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>275600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>333200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>378400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>264500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>213100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>241600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>268300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>296500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>335000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>313800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>341500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>363900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>222500</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3696,8 +3798,11 @@
       <c r="AD46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3782,77 +3887,80 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E48" s="3">
         <v>6600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>100</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,41 +3976,44 @@
       <c r="AD48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E49" s="3">
         <v>18000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>19300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>19500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3918,8 +4029,8 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3954,8 +4065,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4040,8 +4154,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4126,77 +4243,80 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>206200</v>
+      </c>
+      <c r="E52" s="3">
         <v>186700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>191300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>191500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6600</v>
-      </c>
-      <c r="K52" s="3">
-        <v>5800</v>
       </c>
       <c r="L52" s="3">
         <v>5800</v>
       </c>
       <c r="M52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="N52" s="3">
         <v>5600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2200</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4212,8 +4332,11 @@
       <c r="AD52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4298,77 +4421,80 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>484300</v>
+      </c>
+      <c r="E54" s="3">
         <v>442900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>459700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>460000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>210600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>231000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>232800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>252900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>279200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>311200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>349500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>384400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>271400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>226100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>254500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>281800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>308100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>346200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>322000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>347100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>365100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>224800</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4384,8 +4510,11 @@
       <c r="AD54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4416,8 +4545,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4448,77 +4578,78 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2800</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4534,8 +4665,11 @@
       <c r="AD57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4620,77 +4754,80 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E59" s="3">
         <v>35200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>39200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>55000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>41000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>47000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>43000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>32800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>31300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>22100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>20800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>30000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>31600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>23400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>22600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>16500</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,77 +4843,80 @@
       <c r="AD59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E60" s="3">
         <v>36600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>47100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>56500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>43500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>50400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>44800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>34400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>35500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>27800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>27600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>30200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>36900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>42600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>28000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>23100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>19300</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,8 +4932,11 @@
       <c r="AD60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4878,76 +5021,79 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E62" s="3">
         <v>16200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>19500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>100</v>
-      </c>
-      <c r="V62" s="3">
-        <v>200</v>
       </c>
       <c r="W62" s="3">
         <v>200</v>
       </c>
       <c r="X62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>3</v>
@@ -4964,8 +5110,11 @@
       <c r="AD62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5050,8 +5199,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5136,8 +5288,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5222,77 +5377,80 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E66" s="3">
         <v>52800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>75900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>57100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>64700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>47800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>38800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>40500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>37500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>25900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>29100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>29900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>32900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>39600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>42700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>28200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>23300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>19300</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5308,8 +5466,11 @@
       <c r="AD66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5340,8 +5501,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5426,8 +5588,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5512,8 +5677,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5578,11 +5746,11 @@
         <v>0</v>
       </c>
       <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
         <v>310600</v>
       </c>
-      <c r="Y70" s="3">
-        <v>0</v>
-      </c>
       <c r="Z70" s="3">
         <v>0</v>
       </c>
@@ -5598,8 +5766,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5684,77 +5855,80 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-489300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-504300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-492000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-496500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-720600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-700600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-675400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-639100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-608500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-567000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-517500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-463800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-420000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-382500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-356100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-324300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-297200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-260000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-194200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-151600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-127200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-107000</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5770,8 +5944,11 @@
       <c r="AD72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5856,8 +6033,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5942,8 +6122,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6028,77 +6211,80 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>411700</v>
+      </c>
+      <c r="E76" s="3">
         <v>390100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>396100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>384000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>153500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>166200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>185000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>214000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>235800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>270700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>311900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>358500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>250400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>205800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>225400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>251900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>275200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>306500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>279300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>318900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>341800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-105100</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
@@ -6114,8 +6300,11 @@
       <c r="AD76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6200,185 +6389,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AD80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>224100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-25200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-36300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-30500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-41600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-49500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-53700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-43800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-37500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-31800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-27100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-37200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-65800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-42600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-24400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-20300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-64900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-16000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-11200</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6409,8 +6607,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6421,10 +6620,10 @@
         <v>600</v>
       </c>
       <c r="F83" s="3">
+        <v>600</v>
+      </c>
+      <c r="G83" s="3">
         <v>500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>700</v>
       </c>
       <c r="H83" s="3">
         <v>700</v>
@@ -6439,10 +6638,10 @@
         <v>700</v>
       </c>
       <c r="L83" s="3">
+        <v>700</v>
+      </c>
+      <c r="M83" s="3">
         <v>300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>600</v>
       </c>
       <c r="N83" s="3">
         <v>600</v>
@@ -6457,7 +6656,7 @@
         <v>600</v>
       </c>
       <c r="R83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S83" s="3">
         <v>500</v>
@@ -6466,11 +6665,11 @@
         <v>500</v>
       </c>
       <c r="U83" s="3">
+        <v>500</v>
+      </c>
+      <c r="V83" s="3">
         <v>300</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
@@ -6486,8 +6685,8 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>3</v>
+      <c r="AB83" s="3">
+        <v>0</v>
       </c>
       <c r="AC83" s="3" t="s">
         <v>3</v>
@@ -6495,8 +6694,11 @@
       <c r="AD83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6581,8 +6783,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6667,8 +6872,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6753,8 +6961,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6839,8 +7050,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6925,94 +7139,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>62100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-36800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-18900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-28500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-38800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-40100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-41200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-34300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-29200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-31800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-24200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-29300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-41700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-63300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-27600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-20500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-17900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-50200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-10900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-10200</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7043,8 +7263,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7058,16 +7279,16 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -7079,49 +7300,49 @@
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-100</v>
       </c>
       <c r="Y91" s="3">
         <v>-100</v>
       </c>
       <c r="Z91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>3</v>
+      <c r="AB91" s="3">
+        <v>0</v>
       </c>
       <c r="AC91" s="3" t="s">
         <v>3</v>
@@ -7129,8 +7350,11 @@
       <c r="AD91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7215,8 +7439,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7301,85 +7528,88 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-37900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-42700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>19000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>38300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-50000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>47800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>86000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>44800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>68600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-149700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-31200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>88800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>15200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>41400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>29700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-194900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-73900</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-100</v>
       </c>
       <c r="Y94" s="3">
         <v>-100</v>
       </c>
       <c r="Z94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>3</v>
+      <c r="AB94" s="3">
+        <v>0</v>
       </c>
       <c r="AC94" s="3" t="s">
         <v>3</v>
@@ -7387,8 +7617,11 @@
       <c r="AD94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7419,8 +7652,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7505,8 +7739,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7591,8 +7828,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7677,8 +7917,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7763,85 +8006,88 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>146400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>77600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>83200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>156400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>190800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>39900</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>3</v>
+      <c r="AB100" s="3">
+        <v>0</v>
       </c>
       <c r="AC100" s="3" t="s">
         <v>3</v>
@@ -7849,8 +8095,11 @@
       <c r="AD100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7935,90 +8184,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-42100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-53000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>81500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>31000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-59100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-67700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>22000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>48100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>28200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-37600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>17100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>59400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-21900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-14000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>10700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-216100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>64600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>175800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-10400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-11000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-10200</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KNSA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,162 +665,166 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AD7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AE7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E8" s="3">
         <v>71500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>48300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>61900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>99100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>27000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>32200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7700</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,8 +840,8 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -875,41 +879,44 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E9" s="3">
         <v>7700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -964,41 +971,44 @@
       <c r="AE9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E10" s="3">
         <v>63800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>41300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>55200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>92200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>22000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>28000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5200</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1053,8 +1063,11 @@
       <c r="AE10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1086,97 +1099,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E12" s="3">
         <v>23800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>28700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>37400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>31400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>22300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>20900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>22900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>22000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>30800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>59300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>36100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>20600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>17200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>12600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>56400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>14000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>9300</v>
       </c>
-      <c r="AC12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1264,8 +1281,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1334,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
@@ -1326,8 +1346,8 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1353,8 +1373,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1442,8 +1465,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1472,130 +1498,134 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E17" s="3">
         <v>74600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>59500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>55800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>52700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>46300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>55500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>54900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>42800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>48300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>49300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>52900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>43200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>31900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>29400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>32600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>30400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>39300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>67600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>44100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>26200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>21500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>16300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>65400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>16200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>11400</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-11200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>46400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-23300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-36200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-30700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-40600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1611,47 +1641,50 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
         <v>-30400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-39300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-67600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-44100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-26200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-21500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-16300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-65400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-16200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-11400</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,40 +1716,41 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="E20" s="3">
         <v>1900</v>
       </c>
       <c r="F20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1733,38 +1767,38 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
         <v>1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>500</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>200</v>
       </c>
       <c r="AB20" s="3">
         <v>200</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>3</v>
+      <c r="AC20" s="3">
+        <v>200</v>
       </c>
       <c r="AD20" s="3" t="s">
         <v>3</v>
@@ -1772,41 +1806,44 @@
       <c r="AE20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-8800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>47200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-22600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-35400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-30000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-39800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1822,47 +1859,50 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>-28500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-37100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-65400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-42200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-24500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-20400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-64800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-16100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-11200</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1950,165 +1990,171 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>46700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-36100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-30700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-40500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-49300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-52900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-43200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-28600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-31500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-29100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-37600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-65800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-42400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-24500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-20500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-64900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-16100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-11200</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-16200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-177400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-400</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>-100</v>
       </c>
       <c r="Z24" s="3">
         <v>-100</v>
@@ -2117,10 +2163,10 @@
         <v>-100</v>
       </c>
       <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
       </c>
       <c r="AD24" s="3" t="s">
         <v>3</v>
@@ -2128,8 +2174,11 @@
       <c r="AE24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2217,186 +2266,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E26" s="3">
         <v>15000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>224100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-25200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-36300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-30500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-41600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-49500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-53700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-43800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-37500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-26400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-31800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-27100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-37200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-65800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-42600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-24400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-20300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-64800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-16000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-11200</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E27" s="3">
         <v>15000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>224100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-25200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-36300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-30500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-41600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-49500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-53700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-43800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-37500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-26400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-31800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-27100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-37200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-65800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-42600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-24400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-20300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-64800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-16000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-11200</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2484,8 +2542,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2537,8 +2598,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>3</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>3</v>
@@ -2555,12 +2616,12 @@
       <c r="Y29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-100</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2573,8 +2634,11 @@
       <c r="AE29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2662,8 +2726,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2751,40 +2818,43 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1900</v>
+        <v>-2500</v>
       </c>
       <c r="E32" s="3">
         <v>-1900</v>
       </c>
       <c r="F32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -2801,38 +2871,38 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3">
         <v>-1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-500</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>-200</v>
       </c>
       <c r="AB32" s="3">
         <v>-200</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>3</v>
+      <c r="AC32" s="3">
+        <v>-200</v>
       </c>
       <c r="AD32" s="3" t="s">
         <v>3</v>
@@ -2840,97 +2910,103 @@
       <c r="AE32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E33" s="3">
         <v>15000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>224100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-25200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-36300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-30500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-41600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-49500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-53700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-43800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-37500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-26400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-31800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-27100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-37200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-65800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-42600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-24400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-20300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-64900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-16000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-11200</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3018,191 +3094,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E35" s="3">
         <v>15000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>224100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-25200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-36300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-30500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-41600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-49500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-53700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-43800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-37500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-26400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-31800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-27100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-37200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-65800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-42600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-24400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-20300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-64900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-16000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-11200</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AD38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AE38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3234,8 +3319,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3267,80 +3353,81 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>117800</v>
+      </c>
+      <c r="E41" s="3">
         <v>112600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>80600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>122700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>175800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>94300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>63300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>122500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>190200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>168000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>119900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>114000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>85900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>123500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>106300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>46900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>68800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>82800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>82600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>72000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>69700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>285500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>221100</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,77 +3443,80 @@
       <c r="AE41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E42" s="3">
         <v>72400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>106900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>67900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>25000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>43900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>82300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>59700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>57900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>144200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>209400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>278500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>128900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>97900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>186500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>189900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>204600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>243900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>235300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>268200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>73700</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3445,41 +3535,44 @@
       <c r="AE42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E43" s="3">
         <v>24700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>20300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>29400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3495,8 +3588,8 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -3534,44 +3627,47 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E44" s="3">
         <v>24000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>23400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>21600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>14600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>19900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3587,8 +3683,8 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -3623,80 +3719,83 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E45" s="3">
         <v>12400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1300</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3712,80 +3811,83 @@
       <c r="AE45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>256100</v>
+      </c>
+      <c r="E46" s="3">
         <v>246000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>231500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>243100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>241800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>179900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>198800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>196400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>217500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>244800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>275600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>333200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>378400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>264500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>213100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>241600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>268300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>296500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>335000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>313800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>341500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>363900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>222500</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3801,8 +3903,11 @@
       <c r="AE46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3890,80 +3995,83 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E48" s="3">
         <v>14300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>9500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>100</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3979,44 +4087,47 @@
       <c r="AE48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E49" s="3">
         <v>17800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>18800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>19000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>19300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -4032,8 +4143,8 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -4068,8 +4179,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4157,8 +4271,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4246,80 +4363,83 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>195900</v>
+      </c>
+      <c r="E52" s="3">
         <v>206200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>186700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>191300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>191500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6600</v>
-      </c>
-      <c r="L52" s="3">
-        <v>5800</v>
       </c>
       <c r="M52" s="3">
         <v>5800</v>
       </c>
       <c r="N52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="O52" s="3">
         <v>5600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2200</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4335,8 +4455,11 @@
       <c r="AE52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4424,80 +4547,83 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>483100</v>
+      </c>
+      <c r="E54" s="3">
         <v>484300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>442900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>459700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>460000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>210600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>231000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>232800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>252900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>279200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>311200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>349500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>384400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>271400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>226100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>254500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>281800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>308100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>346200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>322000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>347100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>365100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>224800</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4513,8 +4639,11 @@
       <c r="AE54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4546,8 +4675,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4579,80 +4709,81 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2800</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4668,8 +4799,11 @@
       <c r="AE57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4757,80 +4891,83 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E59" s="3">
         <v>46800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>35200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>55000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>41000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>47000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>43000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>32700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>31300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>22100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>20800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>30000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>31600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>23400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>22600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>16500</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4846,80 +4983,83 @@
       <c r="AE59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E60" s="3">
         <v>47500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>47100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>56500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>43500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>50400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>44800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>35500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>27800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>27600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>30200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>36900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>42600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>28000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>23100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>19300</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4935,8 +5075,11 @@
       <c r="AE60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5024,79 +5167,82 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E62" s="3">
         <v>25200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>100</v>
-      </c>
-      <c r="W62" s="3">
-        <v>200</v>
       </c>
       <c r="X62" s="3">
         <v>200</v>
       </c>
       <c r="Y62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>3</v>
@@ -5113,8 +5259,11 @@
       <c r="AE62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5202,8 +5351,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5291,8 +5443,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5380,80 +5535,83 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E66" s="3">
         <v>72700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>52800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>63500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>75900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>57100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>64700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>47800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>38800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>40500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>37500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>25900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>29100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>29900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>32900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>39600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>42700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>28200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>23300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>19300</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5469,8 +5627,11 @@
       <c r="AE66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5502,8 +5663,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5591,8 +5753,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5680,8 +5845,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5749,11 +5917,11 @@
         <v>0</v>
       </c>
       <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
         <v>310600</v>
       </c>
-      <c r="Z70" s="3">
-        <v>0</v>
-      </c>
       <c r="AA70" s="3">
         <v>0</v>
       </c>
@@ -5769,8 +5937,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5858,80 +6029,83 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-503200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-489300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-504300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-492000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-496500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-720600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-700600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-675400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-639100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-608500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-567000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-517500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-463800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-420000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-382500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-356100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-324300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-297200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-260000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-194200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-151600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-127200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-107000</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5947,8 +6121,11 @@
       <c r="AE72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6036,8 +6213,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6125,8 +6305,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6214,80 +6397,83 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>405100</v>
+      </c>
+      <c r="E76" s="3">
         <v>411700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>390100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>396100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>384000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>153500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>166200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>185000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>214000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>235800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>270700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>311900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>358500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>250400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>205800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>225400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>251900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>275200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>306500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>279300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>318900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>341800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-105100</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
@@ -6303,8 +6489,11 @@
       <c r="AE76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6392,191 +6581,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AD80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AE80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E81" s="3">
         <v>15000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>224100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-25200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-36300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-30500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-41600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-49500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-53700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-43800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-37500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-26400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-31800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-27100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-37200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-65800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-42600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-24400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-20300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-64900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-16000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-11200</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6608,8 +6806,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6623,10 +6822,10 @@
         <v>600</v>
       </c>
       <c r="G83" s="3">
+        <v>600</v>
+      </c>
+      <c r="H83" s="3">
         <v>500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>700</v>
       </c>
       <c r="I83" s="3">
         <v>700</v>
@@ -6641,10 +6840,10 @@
         <v>700</v>
       </c>
       <c r="M83" s="3">
+        <v>700</v>
+      </c>
+      <c r="N83" s="3">
         <v>300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>600</v>
       </c>
       <c r="O83" s="3">
         <v>600</v>
@@ -6659,7 +6858,7 @@
         <v>600</v>
       </c>
       <c r="S83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T83" s="3">
         <v>500</v>
@@ -6668,11 +6867,11 @@
         <v>500</v>
       </c>
       <c r="V83" s="3">
+        <v>500</v>
+      </c>
+      <c r="W83" s="3">
         <v>300</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
@@ -6688,8 +6887,8 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>3</v>
+      <c r="AC83" s="3">
+        <v>0</v>
       </c>
       <c r="AD83" s="3" t="s">
         <v>3</v>
@@ -6697,8 +6896,11 @@
       <c r="AE83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6786,8 +6988,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6875,8 +7080,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6964,8 +7172,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7053,8 +7264,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7142,97 +7356,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>62100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-36800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-18900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-28500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-38800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-40100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-41200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-34300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-29200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-31800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-24200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-29300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-41700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-63300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-27600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-20500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-17900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-15000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-50200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-10900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-10200</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7264,8 +7484,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7282,16 +7503,16 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
@@ -7303,49 +7524,49 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-100</v>
       </c>
       <c r="Z91" s="3">
         <v>-100</v>
       </c>
       <c r="AA91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>3</v>
+      <c r="AC91" s="3">
+        <v>0</v>
       </c>
       <c r="AD91" s="3" t="s">
         <v>3</v>
@@ -7353,8 +7574,11 @@
       <c r="AE91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7442,8 +7666,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7531,88 +7758,91 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E94" s="3">
         <v>35500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-37900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-42700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>19000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>38300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-50000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>47800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>86000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>44800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>68600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-149700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-31200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>88800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>15200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>41400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>29700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-194900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-73900</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-100</v>
       </c>
       <c r="Z94" s="3">
         <v>-100</v>
       </c>
       <c r="AA94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>3</v>
+      <c r="AC94" s="3">
+        <v>0</v>
       </c>
       <c r="AD94" s="3" t="s">
         <v>3</v>
@@ -7620,8 +7850,11 @@
       <c r="AE94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7653,8 +7886,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7742,8 +7976,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7831,8 +8068,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7920,8 +8160,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8009,88 +8252,91 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>146400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>77600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>83200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>156400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>190800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>39900</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>3</v>
+      <c r="AC100" s="3">
+        <v>0</v>
       </c>
       <c r="AD100" s="3" t="s">
         <v>3</v>
@@ -8098,8 +8344,11 @@
       <c r="AE100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8187,93 +8436,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E102" s="3">
         <v>31900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-42100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-53000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>81500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>31000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-59100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-67700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>22000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>48100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>28200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-37600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>17100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>59400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-21900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-14000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>10700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-216100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>64600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>175800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-10400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-11000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-10200</v>
       </c>
-      <c r="AC102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
